--- a/BackTest/2019-10-05 BackTest TMTG.xlsx
+++ b/BackTest/2019-10-05 BackTest TMTG.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.05000000000000004</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-100</v>
+      </c>
       <c r="L12" t="n">
         <v>1.099</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.06000000000000005</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-50</v>
+      </c>
       <c r="L13" t="n">
         <v>1.097</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.06000000000000005</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L14" t="n">
         <v>1.095</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.06000000000000005</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>1.094</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.07000000000000006</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-50</v>
+      </c>
       <c r="L16" t="n">
         <v>1.092</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.08000000000000007</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-60</v>
+      </c>
       <c r="L17" t="n">
         <v>1.089</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.08000000000000007</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-60</v>
+      </c>
       <c r="L18" t="n">
         <v>1.086</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.09000000000000008</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L19" t="n">
         <v>1.084</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.1200000000000001</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-50</v>
+      </c>
       <c r="L20" t="n">
         <v>1.079</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.1500000000000001</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>1.078</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.1600000000000001</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-20</v>
+      </c>
       <c r="L22" t="n">
         <v>1.077</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.1700000000000002</v>
       </c>
       <c r="K23" t="n">
-        <v>-33.33333333333333</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L23" t="n">
         <v>1.074</v>
@@ -1466,7 +1488,7 @@
         <v>0.1700000000000002</v>
       </c>
       <c r="K24" t="n">
-        <v>-33.33333333333333</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L24" t="n">
         <v>1.071</v>
@@ -1515,7 +1537,7 @@
         <v>0.1700000000000002</v>
       </c>
       <c r="K25" t="n">
-        <v>-28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L25" t="n">
         <v>1.068000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>0.1700000000000002</v>
       </c>
       <c r="K26" t="n">
-        <v>-28.57142857142857</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L26" t="n">
         <v>1.066000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>0.1900000000000002</v>
       </c>
       <c r="K27" t="n">
-        <v>-12.5</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L27" t="n">
         <v>1.067000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>0.1900000000000002</v>
       </c>
       <c r="K28" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>1.068000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="K29" t="n">
-        <v>-5.88235294117647</v>
+        <v>50</v>
       </c>
       <c r="L29" t="n">
         <v>1.069</v>
@@ -1760,7 +1782,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="K30" t="n">
-        <v>-5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L30" t="n">
         <v>1.073</v>
@@ -1809,7 +1831,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L31" t="n">
         <v>1.074</v>
@@ -1860,7 +1882,7 @@
         <v>0.2100000000000002</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L32" t="n">
         <v>1.075</v>
@@ -1911,7 +1933,7 @@
         <v>0.2200000000000002</v>
       </c>
       <c r="K33" t="n">
-        <v>-12.5</v>
+        <v>20</v>
       </c>
       <c r="L33" t="n">
         <v>1.076</v>
@@ -1962,7 +1984,7 @@
         <v>0.2300000000000002</v>
       </c>
       <c r="K34" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L34" t="n">
         <v>1.078</v>
@@ -2013,7 +2035,7 @@
         <v>0.2400000000000002</v>
       </c>
       <c r="K35" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L35" t="n">
         <v>1.079</v>
@@ -2115,7 +2137,7 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="K37" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>1.081</v>
@@ -2166,7 +2188,7 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="K38" t="n">
-        <v>5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L38" t="n">
         <v>1.081</v>
@@ -2217,7 +2239,7 @@
         <v>0.2600000000000002</v>
       </c>
       <c r="K39" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>1.081</v>
@@ -2268,7 +2290,7 @@
         <v>0.2900000000000003</v>
       </c>
       <c r="K40" t="n">
-        <v>5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>1.078</v>
@@ -2370,7 +2392,7 @@
         <v>0.3100000000000003</v>
       </c>
       <c r="K42" t="n">
-        <v>6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L42" t="n">
         <v>1.077</v>
@@ -2421,7 +2443,7 @@
         <v>0.3200000000000003</v>
       </c>
       <c r="K43" t="n">
-        <v>6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L43" t="n">
         <v>1.077</v>
@@ -2472,7 +2494,7 @@
         <v>0.3200000000000003</v>
       </c>
       <c r="K44" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>1.076</v>
@@ -2523,7 +2545,7 @@
         <v>0.3300000000000003</v>
       </c>
       <c r="K45" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>1.077</v>
@@ -2574,7 +2596,7 @@
         <v>0.3500000000000003</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L46" t="n">
         <v>1.075</v>
@@ -2625,7 +2647,7 @@
         <v>0.3500000000000003</v>
       </c>
       <c r="K47" t="n">
-        <v>-12.5</v>
+        <v>-20</v>
       </c>
       <c r="L47" t="n">
         <v>1.073</v>
@@ -2676,7 +2698,7 @@
         <v>0.3500000000000003</v>
       </c>
       <c r="K48" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L48" t="n">
         <v>1.071</v>
@@ -2727,7 +2749,7 @@
         <v>0.3500000000000003</v>
       </c>
       <c r="K49" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>1.068000000000001</v>
@@ -2778,7 +2800,7 @@
         <v>0.3500000000000003</v>
       </c>
       <c r="K50" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L50" t="n">
         <v>1.068000000000001</v>
@@ -2829,7 +2851,7 @@
         <v>0.3600000000000003</v>
       </c>
       <c r="K51" t="n">
-        <v>-25</v>
+        <v>-60</v>
       </c>
       <c r="L51" t="n">
         <v>1.065000000000001</v>
@@ -2880,7 +2902,7 @@
         <v>0.3700000000000003</v>
       </c>
       <c r="K52" t="n">
-        <v>-12.5</v>
+        <v>-20</v>
       </c>
       <c r="L52" t="n">
         <v>1.063000000000001</v>
@@ -2931,7 +2953,7 @@
         <v>0.3700000000000003</v>
       </c>
       <c r="K53" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L53" t="n">
         <v>1.062000000000001</v>
@@ -2982,7 +3004,7 @@
         <v>0.3800000000000003</v>
       </c>
       <c r="K54" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L54" t="n">
         <v>1.062000000000001</v>
@@ -3033,7 +3055,7 @@
         <v>0.3800000000000003</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L55" t="n">
         <v>1.061000000000001</v>
@@ -3084,7 +3106,7 @@
         <v>0.3800000000000003</v>
       </c>
       <c r="K56" t="n">
-        <v>-7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L56" t="n">
         <v>1.062000000000001</v>
@@ -3135,7 +3157,7 @@
         <v>0.3800000000000003</v>
       </c>
       <c r="K57" t="n">
-        <v>-7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L57" t="n">
         <v>1.063000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>0.3900000000000003</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L58" t="n">
         <v>1.065000000000001</v>
@@ -3237,7 +3259,7 @@
         <v>0.4000000000000004</v>
       </c>
       <c r="K59" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L59" t="n">
         <v>1.066000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>0.4100000000000004</v>
       </c>
       <c r="K60" t="n">
-        <v>16.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L60" t="n">
         <v>1.068000000000001</v>
@@ -3339,7 +3361,7 @@
         <v>0.4100000000000004</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L61" t="n">
         <v>1.071</v>
@@ -3390,7 +3412,7 @@
         <v>0.4200000000000004</v>
       </c>
       <c r="K62" t="n">
-        <v>9.090909090909092</v>
+        <v>60</v>
       </c>
       <c r="L62" t="n">
         <v>1.074</v>
@@ -3441,7 +3463,7 @@
         <v>0.4300000000000004</v>
       </c>
       <c r="K63" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L63" t="n">
         <v>1.076</v>
@@ -3492,7 +3514,7 @@
         <v>0.4300000000000004</v>
       </c>
       <c r="K64" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L64" t="n">
         <v>1.077</v>
@@ -3543,7 +3565,7 @@
         <v>0.4300000000000004</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L65" t="n">
         <v>1.078</v>
@@ -3594,7 +3616,7 @@
         <v>0.4400000000000004</v>
       </c>
       <c r="K66" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>1.078</v>
@@ -3645,7 +3667,7 @@
         <v>0.4500000000000004</v>
       </c>
       <c r="K67" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>1.079</v>
@@ -3747,7 +3769,7 @@
         <v>0.4500000000000004</v>
       </c>
       <c r="K69" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>1.08</v>
@@ -3798,7 +3820,7 @@
         <v>0.4600000000000004</v>
       </c>
       <c r="K70" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L70" t="n">
         <v>1.081</v>
@@ -3849,7 +3871,7 @@
         <v>0.4800000000000004</v>
       </c>
       <c r="K71" t="n">
-        <v>16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L71" t="n">
         <v>1.08</v>
@@ -3900,7 +3922,7 @@
         <v>0.5000000000000004</v>
       </c>
       <c r="K72" t="n">
-        <v>23.07692307692308</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L72" t="n">
         <v>1.08</v>
@@ -3951,7 +3973,7 @@
         <v>0.5200000000000005</v>
       </c>
       <c r="K73" t="n">
-        <v>6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L73" t="n">
         <v>1.079</v>
@@ -4002,7 +4024,7 @@
         <v>0.5300000000000005</v>
       </c>
       <c r="K74" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>1.079</v>
@@ -4104,7 +4126,7 @@
         <v>0.5500000000000005</v>
       </c>
       <c r="K76" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>1.079</v>
@@ -4155,7 +4177,7 @@
         <v>0.5600000000000005</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L77" t="n">
         <v>1.078</v>
@@ -4257,7 +4279,7 @@
         <v>0.5800000000000005</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L79" t="n">
         <v>1.077</v>
@@ -4308,7 +4330,7 @@
         <v>0.5800000000000005</v>
       </c>
       <c r="K80" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>1.075</v>
@@ -4359,7 +4381,7 @@
         <v>0.5800000000000005</v>
       </c>
       <c r="K81" t="n">
-        <v>-5.88235294117647</v>
+        <v>-25</v>
       </c>
       <c r="L81" t="n">
         <v>1.075</v>
@@ -4410,7 +4432,7 @@
         <v>0.5900000000000005</v>
       </c>
       <c r="K82" t="n">
-        <v>-17.64705882352941</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L82" t="n">
         <v>1.072000000000001</v>
@@ -4461,7 +4483,7 @@
         <v>0.5900000000000005</v>
       </c>
       <c r="K83" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L83" t="n">
         <v>1.071</v>
@@ -4512,7 +4534,7 @@
         <v>0.6100000000000005</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L84" t="n">
         <v>1.071</v>
@@ -4665,7 +4687,7 @@
         <v>0.6200000000000006</v>
       </c>
       <c r="K87" t="n">
-        <v>-5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L87" t="n">
         <v>1.071</v>
@@ -4716,7 +4738,7 @@
         <v>0.6200000000000006</v>
       </c>
       <c r="K88" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>1.070000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>0.6200000000000006</v>
       </c>
       <c r="K89" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>1.070000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>0.6200000000000006</v>
       </c>
       <c r="K90" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>1.070000000000001</v>
@@ -4869,7 +4891,7 @@
         <v>0.6200000000000006</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L91" t="n">
         <v>1.070000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>0.6200000000000006</v>
       </c>
       <c r="K92" t="n">
-        <v>-16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>1.071</v>
@@ -4971,7 +4993,7 @@
         <v>0.6300000000000006</v>
       </c>
       <c r="K93" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L93" t="n">
         <v>1.071</v>
@@ -5022,7 +5044,7 @@
         <v>0.6300000000000006</v>
       </c>
       <c r="K94" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L94" t="n">
         <v>1.069</v>
@@ -5124,7 +5146,7 @@
         <v>0.6400000000000006</v>
       </c>
       <c r="K96" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>1.068000000000001</v>
@@ -5226,7 +5248,7 @@
         <v>0.6400000000000006</v>
       </c>
       <c r="K98" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>1.068000000000001</v>
@@ -5430,7 +5452,7 @@
         <v>0.6400000000000006</v>
       </c>
       <c r="K102" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L102" t="n">
         <v>1.068000000000001</v>
@@ -5481,7 +5503,7 @@
         <v>0.6600000000000006</v>
       </c>
       <c r="K103" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L103" t="n">
         <v>1.067000000000001</v>
@@ -5532,7 +5554,7 @@
         <v>0.6700000000000006</v>
       </c>
       <c r="K104" t="n">
-        <v>-66.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L104" t="n">
         <v>1.065</v>
@@ -5583,7 +5605,7 @@
         <v>0.7000000000000006</v>
       </c>
       <c r="K105" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>1.065</v>
@@ -5634,7 +5656,7 @@
         <v>0.7200000000000006</v>
       </c>
       <c r="K106" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L106" t="n">
         <v>1.063</v>
@@ -5736,7 +5758,7 @@
         <v>0.7700000000000007</v>
       </c>
       <c r="K108" t="n">
-        <v>-20</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L108" t="n">
         <v>1.06</v>
@@ -5787,7 +5809,7 @@
         <v>0.7800000000000007</v>
       </c>
       <c r="K109" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L109" t="n">
         <v>1.058</v>
@@ -5838,7 +5860,7 @@
         <v>0.7900000000000007</v>
       </c>
       <c r="K110" t="n">
-        <v>-5.88235294117647</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L110" t="n">
         <v>1.057000000000001</v>
@@ -5889,7 +5911,7 @@
         <v>0.7900000000000007</v>
       </c>
       <c r="K111" t="n">
-        <v>-5.88235294117647</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L111" t="n">
         <v>1.056</v>
@@ -5940,7 +5962,7 @@
         <v>0.8000000000000007</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L112" t="n">
         <v>1.056</v>
@@ -5991,7 +6013,7 @@
         <v>0.8000000000000007</v>
       </c>
       <c r="K113" t="n">
-        <v>5.88235294117647</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L113" t="n">
         <v>1.058</v>
@@ -6042,7 +6064,7 @@
         <v>0.8100000000000007</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L114" t="n">
         <v>1.06</v>
@@ -6093,7 +6115,7 @@
         <v>0.8200000000000007</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L115" t="n">
         <v>1.06</v>
@@ -6195,7 +6217,7 @@
         <v>0.8200000000000007</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L117" t="n">
         <v>1.062</v>
@@ -6246,7 +6268,7 @@
         <v>0.8300000000000007</v>
       </c>
       <c r="K118" t="n">
-        <v>-5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L118" t="n">
         <v>1.064000000000001</v>
@@ -6297,7 +6319,7 @@
         <v>0.8300000000000007</v>
       </c>
       <c r="K119" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>1.065</v>
@@ -6348,7 +6370,7 @@
         <v>0.8500000000000008</v>
       </c>
       <c r="K120" t="n">
-        <v>4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L120" t="n">
         <v>1.067</v>
@@ -6399,7 +6421,7 @@
         <v>0.8700000000000008</v>
       </c>
       <c r="K121" t="n">
-        <v>-4.347826086956522</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L121" t="n">
         <v>1.067</v>
@@ -6501,7 +6523,7 @@
         <v>0.9100000000000008</v>
       </c>
       <c r="K123" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L123" t="n">
         <v>1.07</v>
@@ -6552,7 +6574,7 @@
         <v>0.9400000000000008</v>
       </c>
       <c r="K124" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>1.071</v>
@@ -6603,7 +6625,7 @@
         <v>0.9500000000000008</v>
       </c>
       <c r="K125" t="n">
-        <v>4</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L125" t="n">
         <v>1.072</v>
@@ -6654,7 +6676,7 @@
         <v>0.9500000000000008</v>
       </c>
       <c r="K126" t="n">
-        <v>13.04347826086956</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L126" t="n">
         <v>1.073</v>
@@ -6705,7 +6727,7 @@
         <v>0.9600000000000009</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L127" t="n">
         <v>1.073</v>
@@ -6756,7 +6778,7 @@
         <v>0.9600000000000009</v>
       </c>
       <c r="K128" t="n">
-        <v>15.78947368421053</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L128" t="n">
         <v>1.074</v>
@@ -6807,7 +6829,7 @@
         <v>0.9700000000000009</v>
       </c>
       <c r="K129" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>1.076</v>
@@ -6858,7 +6880,7 @@
         <v>0.9800000000000009</v>
       </c>
       <c r="K130" t="n">
-        <v>15.78947368421053</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L130" t="n">
         <v>1.077</v>
@@ -6909,7 +6931,7 @@
         <v>0.9900000000000009</v>
       </c>
       <c r="K131" t="n">
-        <v>10</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L131" t="n">
         <v>1.079</v>
@@ -6960,7 +6982,7 @@
         <v>0.9900000000000009</v>
       </c>
       <c r="K132" t="n">
-        <v>5.263157894736842</v>
+        <v>-25</v>
       </c>
       <c r="L132" t="n">
         <v>1.08</v>
@@ -7011,7 +7033,7 @@
         <v>0.9900000000000009</v>
       </c>
       <c r="K133" t="n">
-        <v>5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L133" t="n">
         <v>1.078</v>
@@ -7062,7 +7084,7 @@
         <v>1.000000000000001</v>
       </c>
       <c r="K134" t="n">
-        <v>5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L134" t="n">
         <v>1.078</v>
@@ -7113,7 +7135,7 @@
         <v>1.010000000000001</v>
       </c>
       <c r="K135" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
         <v>1.078</v>
@@ -7215,7 +7237,7 @@
         <v>1.030000000000001</v>
       </c>
       <c r="K137" t="n">
-        <v>4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L137" t="n">
         <v>1.078</v>
@@ -7317,7 +7339,7 @@
         <v>1.050000000000001</v>
       </c>
       <c r="K139" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L139" t="n">
         <v>1.08</v>
@@ -7419,7 +7441,7 @@
         <v>1.060000000000001</v>
       </c>
       <c r="K141" t="n">
-        <v>15.78947368421053</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L141" t="n">
         <v>1.08</v>
@@ -7470,7 +7492,7 @@
         <v>1.080000000000001</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L142" t="n">
         <v>1.079</v>
@@ -7521,7 +7543,7 @@
         <v>1.090000000000001</v>
       </c>
       <c r="K143" t="n">
-        <v>-11.11111111111111</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L143" t="n">
         <v>1.079</v>
@@ -7572,7 +7594,7 @@
         <v>1.100000000000001</v>
       </c>
       <c r="K144" t="n">
-        <v>12.5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L144" t="n">
         <v>1.081</v>
@@ -7623,7 +7645,7 @@
         <v>1.110000000000001</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L145" t="n">
         <v>1.081</v>
@@ -7674,7 +7696,7 @@
         <v>1.120000000000001</v>
       </c>
       <c r="K146" t="n">
-        <v>5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L146" t="n">
         <v>1.083</v>
@@ -7725,7 +7747,7 @@
         <v>1.130000000000001</v>
       </c>
       <c r="K147" t="n">
-        <v>5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L147" t="n">
         <v>1.083</v>
@@ -7776,7 +7798,7 @@
         <v>1.150000000000001</v>
       </c>
       <c r="K148" t="n">
-        <v>-5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L148" t="n">
         <v>1.08</v>
@@ -7827,7 +7849,7 @@
         <v>1.160000000000001</v>
       </c>
       <c r="K149" t="n">
-        <v>-5.263157894736842</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L149" t="n">
         <v>1.079</v>
@@ -7878,7 +7900,7 @@
         <v>1.170000000000001</v>
       </c>
       <c r="K150" t="n">
-        <v>-15.78947368421053</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L150" t="n">
         <v>1.077</v>
@@ -7929,7 +7951,7 @@
         <v>1.180000000000001</v>
       </c>
       <c r="K151" t="n">
-        <v>-15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L151" t="n">
         <v>1.073</v>
@@ -7980,7 +8002,7 @@
         <v>1.190000000000001</v>
       </c>
       <c r="K152" t="n">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="L152" t="n">
         <v>1.07</v>
@@ -8031,7 +8053,7 @@
         <v>1.190000000000001</v>
       </c>
       <c r="K153" t="n">
-        <v>-20</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L153" t="n">
         <v>1.066</v>
@@ -8082,7 +8104,7 @@
         <v>1.210000000000001</v>
       </c>
       <c r="K154" t="n">
-        <v>-4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L154" t="n">
         <v>1.063</v>
@@ -8133,7 +8155,7 @@
         <v>1.220000000000001</v>
       </c>
       <c r="K155" t="n">
-        <v>-4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L155" t="n">
         <v>1.062</v>
@@ -8184,7 +8206,7 @@
         <v>1.220000000000001</v>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L156" t="n">
         <v>1.06</v>
@@ -8235,7 +8257,7 @@
         <v>1.240000000000001</v>
       </c>
       <c r="K157" t="n">
-        <v>-14.28571428571428</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L157" t="n">
         <v>1.057</v>
@@ -8286,7 +8308,7 @@
         <v>1.250000000000001</v>
       </c>
       <c r="K158" t="n">
-        <v>-23.80952380952381</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L158" t="n">
         <v>1.055</v>
@@ -8337,7 +8359,7 @@
         <v>1.250000000000001</v>
       </c>
       <c r="K159" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L159" t="n">
         <v>1.052</v>
@@ -8388,7 +8410,7 @@
         <v>1.260000000000001</v>
       </c>
       <c r="K160" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>1.051</v>
@@ -8439,7 +8461,7 @@
         <v>1.290000000000001</v>
       </c>
       <c r="K161" t="n">
-        <v>-30.43478260869566</v>
+        <v>-20</v>
       </c>
       <c r="L161" t="n">
         <v>1.048</v>
@@ -8490,7 +8512,7 @@
         <v>1.310000000000001</v>
       </c>
       <c r="K162" t="n">
-        <v>-13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>1.048</v>
@@ -8541,7 +8563,7 @@
         <v>1.320000000000001</v>
       </c>
       <c r="K163" t="n">
-        <v>-21.73913043478261</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L163" t="n">
         <v>1.047</v>
@@ -8643,7 +8665,7 @@
         <v>1.340000000000001</v>
       </c>
       <c r="K165" t="n">
-        <v>-13.04347826086956</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L165" t="n">
         <v>1.044</v>
@@ -8694,7 +8716,7 @@
         <v>1.360000000000001</v>
       </c>
       <c r="K166" t="n">
-        <v>-25</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L166" t="n">
         <v>1.04</v>
@@ -8745,7 +8767,7 @@
         <v>1.370000000000001</v>
       </c>
       <c r="K167" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>1.039</v>
@@ -8796,7 +8818,7 @@
         <v>1.380000000000001</v>
       </c>
       <c r="K168" t="n">
-        <v>-13.04347826086956</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L168" t="n">
         <v>1.038</v>
@@ -8847,7 +8869,7 @@
         <v>1.390000000000001</v>
       </c>
       <c r="K169" t="n">
-        <v>-13.04347826086956</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L169" t="n">
         <v>1.038</v>
@@ -8898,7 +8920,7 @@
         <v>1.390000000000001</v>
       </c>
       <c r="K170" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L170" t="n">
         <v>1.037</v>
@@ -8949,7 +8971,7 @@
         <v>1.390000000000001</v>
       </c>
       <c r="K171" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>1.039</v>
@@ -9000,7 +9022,7 @@
         <v>1.400000000000001</v>
       </c>
       <c r="K172" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>1.038</v>
@@ -9051,7 +9073,7 @@
         <v>1.400000000000001</v>
       </c>
       <c r="K173" t="n">
-        <v>-4.761904761904762</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L173" t="n">
         <v>1.038</v>
@@ -9102,7 +9124,7 @@
         <v>1.410000000000001</v>
       </c>
       <c r="K174" t="n">
-        <v>-10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L174" t="n">
         <v>1.036999999999999</v>
@@ -9153,7 +9175,7 @@
         <v>1.410000000000001</v>
       </c>
       <c r="K175" t="n">
-        <v>-15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L175" t="n">
         <v>1.035999999999999</v>
@@ -9204,7 +9226,7 @@
         <v>1.410000000000001</v>
       </c>
       <c r="K176" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>1.036999999999999</v>
@@ -9255,7 +9277,7 @@
         <v>1.430000000000001</v>
       </c>
       <c r="K177" t="n">
-        <v>-15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L177" t="n">
         <v>1.034999999999999</v>
@@ -9306,7 +9328,7 @@
         <v>1.430000000000001</v>
       </c>
       <c r="K178" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L178" t="n">
         <v>1.033999999999999</v>
@@ -9408,7 +9430,7 @@
         <v>1.450000000000001</v>
       </c>
       <c r="K180" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>1.033999999999999</v>
@@ -9459,7 +9481,7 @@
         <v>1.450000000000001</v>
       </c>
       <c r="K181" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="L181" t="n">
         <v>1.033999999999999</v>
@@ -9510,7 +9532,7 @@
         <v>1.450000000000001</v>
       </c>
       <c r="K182" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L182" t="n">
         <v>1.034999999999999</v>
@@ -9561,7 +9583,7 @@
         <v>1.450000000000001</v>
       </c>
       <c r="K183" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>1.035999999999999</v>
@@ -9612,7 +9634,7 @@
         <v>1.450000000000001</v>
       </c>
       <c r="K184" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>1.036</v>
@@ -9663,7 +9685,7 @@
         <v>1.450000000000001</v>
       </c>
       <c r="K185" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
         <v>1.036</v>
@@ -9714,7 +9736,7 @@
         <v>1.450000000000001</v>
       </c>
       <c r="K186" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L186" t="n">
         <v>1.036</v>
@@ -9765,7 +9787,7 @@
         <v>1.450000000000001</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L187" t="n">
         <v>1.038</v>
@@ -9815,9 +9837,7 @@
       <c r="J188" t="n">
         <v>1.450000000000001</v>
       </c>
-      <c r="K188" t="n">
-        <v>14.28571428571428</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1.04</v>
       </c>
@@ -9866,9 +9886,7 @@
       <c r="J189" t="n">
         <v>1.450000000000001</v>
       </c>
-      <c r="K189" t="n">
-        <v>0</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1.04</v>
       </c>
@@ -9917,9 +9935,7 @@
       <c r="J190" t="n">
         <v>1.450000000000001</v>
       </c>
-      <c r="K190" t="n">
-        <v>0</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1.04</v>
       </c>
@@ -9968,9 +9984,7 @@
       <c r="J191" t="n">
         <v>1.450000000000001</v>
       </c>
-      <c r="K191" t="n">
-        <v>0</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1.04</v>
       </c>
@@ -10020,7 +10034,7 @@
         <v>1.460000000000001</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L192" t="n">
         <v>1.038999999999999</v>
@@ -10071,7 +10085,7 @@
         <v>1.460000000000001</v>
       </c>
       <c r="K193" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L193" t="n">
         <v>1.037999999999999</v>
@@ -10122,7 +10136,7 @@
         <v>1.460000000000001</v>
       </c>
       <c r="K194" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L194" t="n">
         <v>1.036999999999999</v>
@@ -10275,7 +10289,7 @@
         <v>1.470000000000001</v>
       </c>
       <c r="K197" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>1.036999999999999</v>
@@ -10326,7 +10340,7 @@
         <v>1.470000000000001</v>
       </c>
       <c r="K198" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>1.036999999999999</v>
@@ -10479,7 +10493,7 @@
         <v>1.490000000000001</v>
       </c>
       <c r="K201" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L201" t="n">
         <v>1.035999999999999</v>
@@ -10530,7 +10544,7 @@
         <v>1.500000000000001</v>
       </c>
       <c r="K202" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L202" t="n">
         <v>1.037999999999999</v>
@@ -10581,7 +10595,7 @@
         <v>1.510000000000001</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L203" t="n">
         <v>1.038999999999999</v>
@@ -10785,7 +10799,7 @@
         <v>1.520000000000001</v>
       </c>
       <c r="K207" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L207" t="n">
         <v>1.041</v>
@@ -10836,7 +10850,7 @@
         <v>1.520000000000001</v>
       </c>
       <c r="K208" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L208" t="n">
         <v>1.042</v>
@@ -10887,7 +10901,7 @@
         <v>1.530000000000001</v>
       </c>
       <c r="K209" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L209" t="n">
         <v>1.042</v>
@@ -10989,7 +11003,7 @@
         <v>1.540000000000001</v>
       </c>
       <c r="K211" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L211" t="n">
         <v>1.044</v>
@@ -11040,7 +11054,7 @@
         <v>1.540000000000001</v>
       </c>
       <c r="K212" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L212" t="n">
         <v>1.044</v>
@@ -11091,7 +11105,7 @@
         <v>1.540000000000001</v>
       </c>
       <c r="K213" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L213" t="n">
         <v>1.045</v>
@@ -11142,7 +11156,7 @@
         <v>1.540000000000001</v>
       </c>
       <c r="K214" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L214" t="n">
         <v>1.046</v>
@@ -11193,7 +11207,7 @@
         <v>1.540000000000001</v>
       </c>
       <c r="K215" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L215" t="n">
         <v>1.047</v>
@@ -11244,7 +11258,7 @@
         <v>1.550000000000001</v>
       </c>
       <c r="K216" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L216" t="n">
         <v>1.049</v>
@@ -11295,7 +11309,7 @@
         <v>1.550000000000001</v>
       </c>
       <c r="K217" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L217" t="n">
         <v>1.05</v>
@@ -11346,7 +11360,7 @@
         <v>1.560000000000001</v>
       </c>
       <c r="K218" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L218" t="n">
         <v>1.05</v>
@@ -11397,7 +11411,7 @@
         <v>1.560000000000001</v>
       </c>
       <c r="K219" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L219" t="n">
         <v>1.051</v>
@@ -11499,7 +11513,7 @@
         <v>1.580000000000001</v>
       </c>
       <c r="K221" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>1.053</v>
@@ -11550,7 +11564,7 @@
         <v>1.590000000000001</v>
       </c>
       <c r="K222" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L222" t="n">
         <v>1.054</v>
@@ -11601,7 +11615,7 @@
         <v>1.590000000000001</v>
       </c>
       <c r="K223" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L223" t="n">
         <v>1.055</v>
@@ -11652,7 +11666,7 @@
         <v>1.600000000000001</v>
       </c>
       <c r="K224" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L224" t="n">
         <v>1.055</v>
@@ -11703,7 +11717,7 @@
         <v>1.600000000000001</v>
       </c>
       <c r="K225" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L225" t="n">
         <v>1.055</v>
@@ -11754,7 +11768,7 @@
         <v>1.620000000000001</v>
       </c>
       <c r="K226" t="n">
-        <v>27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L226" t="n">
         <v>1.056</v>
@@ -11805,7 +11819,7 @@
         <v>1.630000000000001</v>
       </c>
       <c r="K227" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L227" t="n">
         <v>1.056</v>
@@ -11856,7 +11870,7 @@
         <v>1.630000000000001</v>
       </c>
       <c r="K228" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L228" t="n">
         <v>1.057</v>
@@ -11907,7 +11921,7 @@
         <v>1.640000000000001</v>
       </c>
       <c r="K229" t="n">
-        <v>27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L229" t="n">
         <v>1.059</v>
@@ -11958,7 +11972,7 @@
         <v>1.660000000000001</v>
       </c>
       <c r="K230" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L230" t="n">
         <v>1.058</v>
@@ -12009,7 +12023,7 @@
         <v>1.670000000000001</v>
       </c>
       <c r="K231" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
         <v>1.059</v>
@@ -12060,7 +12074,7 @@
         <v>1.680000000000001</v>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L232" t="n">
         <v>1.058</v>
@@ -12111,7 +12125,7 @@
         <v>1.690000000000002</v>
       </c>
       <c r="K233" t="n">
-        <v>6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L233" t="n">
         <v>1.058</v>
@@ -12162,7 +12176,7 @@
         <v>1.690000000000002</v>
       </c>
       <c r="K234" t="n">
-        <v>6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L234" t="n">
         <v>1.059</v>
@@ -12213,7 +12227,7 @@
         <v>1.700000000000002</v>
       </c>
       <c r="K235" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L235" t="n">
         <v>1.059</v>
@@ -12366,7 +12380,7 @@
         <v>1.710000000000002</v>
       </c>
       <c r="K238" t="n">
-        <v>6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L238" t="n">
         <v>1.058</v>
@@ -12417,7 +12431,7 @@
         <v>1.710000000000002</v>
       </c>
       <c r="K239" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L239" t="n">
         <v>1.057</v>
@@ -12468,7 +12482,7 @@
         <v>1.720000000000002</v>
       </c>
       <c r="K240" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L240" t="n">
         <v>1.059</v>
@@ -12519,7 +12533,7 @@
         <v>1.730000000000002</v>
       </c>
       <c r="K241" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L241" t="n">
         <v>1.059</v>
@@ -12672,7 +12686,7 @@
         <v>1.730000000000002</v>
       </c>
       <c r="K244" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L244" t="n">
         <v>1.06</v>
@@ -12723,7 +12737,7 @@
         <v>1.740000000000002</v>
       </c>
       <c r="K245" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L245" t="n">
         <v>1.062</v>
@@ -12774,7 +12788,7 @@
         <v>1.750000000000002</v>
       </c>
       <c r="K246" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L246" t="n">
         <v>1.062</v>
@@ -12825,7 +12839,7 @@
         <v>1.760000000000002</v>
       </c>
       <c r="K247" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L247" t="n">
         <v>1.063</v>
@@ -12927,7 +12941,7 @@
         <v>1.770000000000002</v>
       </c>
       <c r="K249" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L249" t="n">
         <v>1.063</v>
@@ -12978,7 +12992,7 @@
         <v>1.790000000000002</v>
       </c>
       <c r="K250" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L250" t="n">
         <v>1.064</v>
@@ -13080,7 +13094,7 @@
         <v>1.810000000000002</v>
       </c>
       <c r="K252" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L252" t="n">
         <v>1.064</v>
@@ -13182,7 +13196,7 @@
         <v>1.810000000000002</v>
       </c>
       <c r="K254" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L254" t="n">
         <v>1.064</v>
@@ -13233,7 +13247,7 @@
         <v>1.810000000000002</v>
       </c>
       <c r="K255" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>1.063</v>
@@ -13284,7 +13298,7 @@
         <v>1.810000000000002</v>
       </c>
       <c r="K256" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L256" t="n">
         <v>1.063</v>
@@ -13437,7 +13451,7 @@
         <v>1.810000000000002</v>
       </c>
       <c r="K259" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L259" t="n">
         <v>1.062</v>
@@ -13488,7 +13502,7 @@
         <v>1.820000000000002</v>
       </c>
       <c r="K260" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L260" t="n">
         <v>1.059</v>
@@ -13539,7 +13553,7 @@
         <v>1.830000000000002</v>
       </c>
       <c r="K261" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L261" t="n">
         <v>1.057</v>
@@ -13590,7 +13604,7 @@
         <v>1.830000000000002</v>
       </c>
       <c r="K262" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L262" t="n">
         <v>1.055</v>
@@ -13641,7 +13655,7 @@
         <v>1.840000000000002</v>
       </c>
       <c r="K263" t="n">
-        <v>-27.27272727272727</v>
+        <v>-100</v>
       </c>
       <c r="L263" t="n">
         <v>1.052</v>
@@ -13692,7 +13706,7 @@
         <v>1.840000000000002</v>
       </c>
       <c r="K264" t="n">
-        <v>-27.27272727272727</v>
+        <v>-100</v>
       </c>
       <c r="L264" t="n">
         <v>1.049</v>
@@ -13743,7 +13757,7 @@
         <v>1.850000000000002</v>
       </c>
       <c r="K265" t="n">
-        <v>-27.27272727272727</v>
+        <v>-50</v>
       </c>
       <c r="L265" t="n">
         <v>1.047</v>
@@ -13794,7 +13808,7 @@
         <v>1.860000000000002</v>
       </c>
       <c r="K266" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L266" t="n">
         <v>1.046</v>
@@ -13845,7 +13859,7 @@
         <v>1.870000000000002</v>
       </c>
       <c r="K267" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L267" t="n">
         <v>1.044</v>
@@ -13896,7 +13910,7 @@
         <v>1.880000000000002</v>
       </c>
       <c r="K268" t="n">
-        <v>-27.27272727272727</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L268" t="n">
         <v>1.040999999999999</v>
@@ -13947,7 +13961,7 @@
         <v>1.890000000000002</v>
       </c>
       <c r="K269" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L269" t="n">
         <v>1.038999999999999</v>
@@ -13998,7 +14012,7 @@
         <v>1.890000000000002</v>
       </c>
       <c r="K270" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="L270" t="n">
         <v>1.038</v>
@@ -14049,7 +14063,7 @@
         <v>1.900000000000002</v>
       </c>
       <c r="K271" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L271" t="n">
         <v>1.039</v>
@@ -14100,7 +14114,7 @@
         <v>1.910000000000002</v>
       </c>
       <c r="K272" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L272" t="n">
         <v>1.041</v>
@@ -14151,7 +14165,7 @@
         <v>1.910000000000002</v>
       </c>
       <c r="K273" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L273" t="n">
         <v>1.044</v>
@@ -14202,7 +14216,7 @@
         <v>1.910000000000002</v>
       </c>
       <c r="K274" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L274" t="n">
         <v>1.047</v>
@@ -14253,7 +14267,7 @@
         <v>1.910000000000002</v>
       </c>
       <c r="K275" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L275" t="n">
         <v>1.049</v>
@@ -14304,7 +14318,7 @@
         <v>1.920000000000002</v>
       </c>
       <c r="K276" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L276" t="n">
         <v>1.049</v>
@@ -14355,7 +14369,7 @@
         <v>1.930000000000002</v>
       </c>
       <c r="K277" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L277" t="n">
         <v>1.051</v>
@@ -14406,7 +14420,7 @@
         <v>1.960000000000002</v>
       </c>
       <c r="K278" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L278" t="n">
         <v>1.051</v>
@@ -14508,7 +14522,7 @@
         <v>1.980000000000002</v>
       </c>
       <c r="K280" t="n">
-        <v>-12.5</v>
+        <v>-25</v>
       </c>
       <c r="L280" t="n">
         <v>1.048</v>
@@ -14559,7 +14573,7 @@
         <v>1.990000000000002</v>
       </c>
       <c r="K281" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L281" t="n">
         <v>1.046999999999999</v>
@@ -14610,7 +14624,7 @@
         <v>1.990000000000002</v>
       </c>
       <c r="K282" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L282" t="n">
         <v>1.044999999999999</v>
@@ -14661,7 +14675,7 @@
         <v>2.000000000000002</v>
       </c>
       <c r="K283" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L283" t="n">
         <v>1.041999999999999</v>
@@ -14712,7 +14726,7 @@
         <v>2.000000000000002</v>
       </c>
       <c r="K284" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L284" t="n">
         <v>1.038999999999999</v>
@@ -14763,7 +14777,7 @@
         <v>2.010000000000002</v>
       </c>
       <c r="K285" t="n">
-        <v>-12.50000000000002</v>
+        <v>-33.33333333333341</v>
       </c>
       <c r="L285" t="n">
         <v>1.034999999999999</v>
@@ -14814,7 +14828,7 @@
         <v>2.030000000000002</v>
       </c>
       <c r="K286" t="n">
-        <v>-5.882352941176478</v>
+        <v>-20.00000000000005</v>
       </c>
       <c r="L286" t="n">
         <v>1.033999999999999</v>
@@ -14865,7 +14879,7 @@
         <v>2.030000000000002</v>
       </c>
       <c r="K287" t="n">
-        <v>0</v>
+        <v>14.28571428571433</v>
       </c>
       <c r="L287" t="n">
         <v>1.031999999999999</v>
@@ -14916,7 +14930,7 @@
         <v>2.030000000000002</v>
       </c>
       <c r="K288" t="n">
-        <v>6.666666666666677</v>
+        <v>33.33333333333346</v>
       </c>
       <c r="L288" t="n">
         <v>1.032999999999999</v>
@@ -14967,7 +14981,7 @@
         <v>2.030000000000002</v>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
+        <v>20.00000000000009</v>
       </c>
       <c r="L289" t="n">
         <v>1.034999999999999</v>
@@ -15018,7 +15032,7 @@
         <v>2.050000000000002</v>
       </c>
       <c r="K290" t="n">
-        <v>-12.50000000000002</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L290" t="n">
         <v>1.033999999999999</v>
@@ -15069,7 +15083,7 @@
         <v>2.050000000000002</v>
       </c>
       <c r="K291" t="n">
-        <v>-20.00000000000003</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L291" t="n">
         <v>1.031999999999999</v>
@@ -15120,7 +15134,7 @@
         <v>2.060000000000001</v>
       </c>
       <c r="K292" t="n">
-        <v>-20.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="L292" t="n">
         <v>1.030999999999999</v>
@@ -15171,7 +15185,7 @@
         <v>2.060000000000001</v>
       </c>
       <c r="K293" t="n">
-        <v>-20.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="L293" t="n">
         <v>1.030999999999999</v>
@@ -15222,7 +15236,7 @@
         <v>2.070000000000001</v>
       </c>
       <c r="K294" t="n">
-        <v>-25.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="L294" t="n">
         <v>1.029999999999999</v>
@@ -15273,7 +15287,7 @@
         <v>2.080000000000001</v>
       </c>
       <c r="K295" t="n">
-        <v>-17.64705882352951</v>
+        <v>-20.00000000000027</v>
       </c>
       <c r="L295" t="n">
         <v>1.030999999999999</v>
@@ -15324,7 +15338,7 @@
         <v>2.100000000000001</v>
       </c>
       <c r="K296" t="n">
-        <v>-22.22222222222233</v>
+        <v>-42.85714285714327</v>
       </c>
       <c r="L296" t="n">
         <v>1.027999999999999</v>
@@ -15375,7 +15389,7 @@
         <v>2.110000000000001</v>
       </c>
       <c r="K297" t="n">
-        <v>-22.2222222222223</v>
+        <v>-25.00000000000014</v>
       </c>
       <c r="L297" t="n">
         <v>1.025999999999999</v>
@@ -15426,7 +15440,7 @@
         <v>2.120000000000001</v>
       </c>
       <c r="K298" t="n">
-        <v>-12.50000000000007</v>
+        <v>-33.33333333333358</v>
       </c>
       <c r="L298" t="n">
         <v>1.022999999999999</v>
@@ -15528,7 +15542,7 @@
         <v>2.130000000000001</v>
       </c>
       <c r="K300" t="n">
-        <v>-6.666666666666717</v>
+        <v>0</v>
       </c>
       <c r="L300" t="n">
         <v>1.020999999999999</v>
@@ -15579,7 +15593,7 @@
         <v>2.140000000000001</v>
       </c>
       <c r="K301" t="n">
-        <v>-20.00000000000018</v>
+        <v>-25.00000000000028</v>
       </c>
       <c r="L301" t="n">
         <v>1.019999999999999</v>
@@ -15630,7 +15644,7 @@
         <v>2.140000000000001</v>
       </c>
       <c r="K302" t="n">
-        <v>-20.00000000000018</v>
+        <v>-25.00000000000028</v>
       </c>
       <c r="L302" t="n">
         <v>1.017999999999999</v>
@@ -15681,7 +15695,7 @@
         <v>2.15</v>
       </c>
       <c r="K303" t="n">
-        <v>-20.00000000000021</v>
+        <v>-25.00000000000028</v>
       </c>
       <c r="L303" t="n">
         <v>1.014999999999999</v>
@@ -15732,7 +15746,7 @@
         <v>2.16</v>
       </c>
       <c r="K304" t="n">
-        <v>-25.00000000000028</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L304" t="n">
         <v>1.011999999999999</v>
@@ -15783,7 +15797,7 @@
         <v>2.17</v>
       </c>
       <c r="K305" t="n">
-        <v>-25.00000000000028</v>
+        <v>-42.85714285714354</v>
       </c>
       <c r="L305" t="n">
         <v>1.006999999999999</v>
@@ -15834,7 +15848,7 @@
         <v>2.19</v>
       </c>
       <c r="K306" t="n">
-        <v>-50.00000000000055</v>
+        <v>-75.00000000000125</v>
       </c>
       <c r="L306" t="n">
         <v>1.001999999999999</v>
@@ -15885,7 +15899,7 @@
         <v>2.2</v>
       </c>
       <c r="K307" t="n">
-        <v>-41.17647058823567</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L307" t="n">
         <v>0.9969999999999992</v>
@@ -15936,7 +15950,7 @@
         <v>2.21</v>
       </c>
       <c r="K308" t="n">
-        <v>-44.44444444444488</v>
+        <v>-75.00000000000084</v>
       </c>
       <c r="L308" t="n">
         <v>0.9919999999999993</v>
@@ -15987,7 +16001,7 @@
         <v>2.21</v>
       </c>
       <c r="K309" t="n">
-        <v>-44.44444444444488</v>
+        <v>-75.00000000000084</v>
       </c>
       <c r="L309" t="n">
         <v>0.9859999999999992</v>
@@ -16038,7 +16052,7 @@
         <v>2.21</v>
       </c>
       <c r="K310" t="n">
-        <v>-37.50000000000042</v>
+        <v>-71.42857142857211</v>
       </c>
       <c r="L310" t="n">
         <v>0.9799999999999993</v>
@@ -16089,7 +16103,7 @@
         <v>2.22</v>
       </c>
       <c r="K311" t="n">
-        <v>-29.4117647058827</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L311" t="n">
         <v>0.9759999999999994</v>
@@ -16140,7 +16154,7 @@
         <v>2.22</v>
       </c>
       <c r="K312" t="n">
-        <v>-37.50000000000042</v>
+        <v>-42.85714285714327</v>
       </c>
       <c r="L312" t="n">
         <v>0.9719999999999995</v>
@@ -16191,7 +16205,7 @@
         <v>2.22</v>
       </c>
       <c r="K313" t="n">
-        <v>-37.50000000000042</v>
+        <v>-33.33333333333358</v>
       </c>
       <c r="L313" t="n">
         <v>0.9689999999999996</v>
@@ -16242,7 +16256,7 @@
         <v>2.23</v>
       </c>
       <c r="K314" t="n">
-        <v>-25.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L314" t="n">
         <v>0.9679999999999996</v>
@@ -16293,7 +16307,7 @@
         <v>2.25</v>
       </c>
       <c r="K315" t="n">
-        <v>-41.17647058823567</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>0.9659999999999996</v>
@@ -16344,7 +16358,7 @@
         <v>2.26</v>
       </c>
       <c r="K316" t="n">
-        <v>-25.00000000000021</v>
+        <v>0</v>
       </c>
       <c r="L316" t="n">
         <v>0.9669999999999999</v>
@@ -16395,7 +16409,7 @@
         <v>2.28</v>
       </c>
       <c r="K317" t="n">
-        <v>-17.64705882352957</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L317" t="n">
         <v>0.9689999999999998</v>
@@ -16446,7 +16460,7 @@
         <v>2.28</v>
       </c>
       <c r="K318" t="n">
-        <v>-12.5000000000001</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L318" t="n">
         <v>0.9719999999999999</v>
@@ -16497,7 +16511,7 @@
         <v>2.29</v>
       </c>
       <c r="K319" t="n">
-        <v>-25.00000000000014</v>
+        <v>25</v>
       </c>
       <c r="L319" t="n">
         <v>0.9739999999999999</v>
@@ -16548,7 +16562,7 @@
         <v>2.29</v>
       </c>
       <c r="K320" t="n">
-        <v>-25.00000000000014</v>
+        <v>14.28571428571424</v>
       </c>
       <c r="L320" t="n">
         <v>0.9759999999999998</v>
@@ -16599,7 +16613,7 @@
         <v>2.3</v>
       </c>
       <c r="K321" t="n">
-        <v>-25.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L321" t="n">
         <v>0.9759999999999998</v>
@@ -16650,7 +16664,7 @@
         <v>2.31</v>
       </c>
       <c r="K322" t="n">
-        <v>-17.64705882352953</v>
+        <v>11.11111111111114</v>
       </c>
       <c r="L322" t="n">
         <v>0.9769999999999998</v>
@@ -16701,7 +16715,7 @@
         <v>2.31</v>
       </c>
       <c r="K323" t="n">
-        <v>-12.50000000000007</v>
+        <v>0</v>
       </c>
       <c r="L323" t="n">
         <v>0.9779999999999998</v>
@@ -16752,7 +16766,7 @@
         <v>2.319999999999999</v>
       </c>
       <c r="K324" t="n">
-        <v>-12.50000000000007</v>
+        <v>14.28571428571433</v>
       </c>
       <c r="L324" t="n">
         <v>0.9769999999999998</v>
@@ -16803,7 +16817,7 @@
         <v>2.319999999999999</v>
       </c>
       <c r="K325" t="n">
-        <v>-6.666666666666695</v>
+        <v>0</v>
       </c>
       <c r="L325" t="n">
         <v>0.9779999999999998</v>
@@ -16854,7 +16868,7 @@
         <v>2.319999999999999</v>
       </c>
       <c r="K326" t="n">
-        <v>7.692307692307732</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L326" t="n">
         <v>0.9779999999999998</v>
@@ -16905,7 +16919,7 @@
         <v>2.329999999999999</v>
       </c>
       <c r="K327" t="n">
-        <v>7.692307692307758</v>
+        <v>-20.00000000000027</v>
       </c>
       <c r="L327" t="n">
         <v>0.9769999999999998</v>
@@ -16956,7 +16970,7 @@
         <v>2.339999999999999</v>
       </c>
       <c r="K328" t="n">
-        <v>23.07692307692328</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L328" t="n">
         <v>0.9769999999999998</v>
@@ -17007,7 +17021,7 @@
         <v>2.349999999999999</v>
       </c>
       <c r="K329" t="n">
-        <v>28.57142857142884</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L329" t="n">
         <v>0.9789999999999998</v>
@@ -17058,7 +17072,7 @@
         <v>2.369999999999999</v>
       </c>
       <c r="K330" t="n">
-        <v>12.5000000000001</v>
+        <v>14.28571428571451</v>
       </c>
       <c r="L330" t="n">
         <v>0.9789999999999998</v>
@@ -17109,7 +17123,7 @@
         <v>2.379999999999999</v>
       </c>
       <c r="K331" t="n">
-        <v>12.50000000000007</v>
+        <v>14.28571428571442</v>
       </c>
       <c r="L331" t="n">
         <v>0.9809999999999997</v>
@@ -17160,7 +17174,7 @@
         <v>2.379999999999999</v>
       </c>
       <c r="K332" t="n">
-        <v>12.50000000000007</v>
+        <v>14.28571428571442</v>
       </c>
       <c r="L332" t="n">
         <v>0.9819999999999997</v>
@@ -17211,7 +17225,7 @@
         <v>2.379999999999999</v>
       </c>
       <c r="K333" t="n">
-        <v>12.50000000000007</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L333" t="n">
         <v>0.9829999999999997</v>
@@ -17262,7 +17276,7 @@
         <v>2.379999999999999</v>
       </c>
       <c r="K334" t="n">
-        <v>6.666666666666695</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L334" t="n">
         <v>0.9849999999999997</v>
@@ -17313,7 +17327,7 @@
         <v>2.389999999999999</v>
       </c>
       <c r="K335" t="n">
-        <v>14.28571428571438</v>
+        <v>14.28571428571442</v>
       </c>
       <c r="L335" t="n">
         <v>0.9859999999999995</v>
@@ -17364,7 +17378,7 @@
         <v>2.389999999999999</v>
       </c>
       <c r="K336" t="n">
-        <v>7.692307692307758</v>
+        <v>0</v>
       </c>
       <c r="L336" t="n">
         <v>0.9869999999999995</v>
@@ -17466,7 +17480,7 @@
         <v>2.409999999999998</v>
       </c>
       <c r="K338" t="n">
-        <v>-7.692307692307784</v>
+        <v>-33.33333333333358</v>
       </c>
       <c r="L338" t="n">
         <v>0.9869999999999995</v>
@@ -17517,7 +17531,7 @@
         <v>2.429999999999998</v>
       </c>
       <c r="K339" t="n">
-        <v>14.28571428571447</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L339" t="n">
         <v>0.9869999999999995</v>
@@ -17568,7 +17582,7 @@
         <v>2.429999999999998</v>
       </c>
       <c r="K340" t="n">
-        <v>14.28571428571447</v>
+        <v>20.00000000000027</v>
       </c>
       <c r="L340" t="n">
         <v>0.9889999999999995</v>
@@ -17619,7 +17633,7 @@
         <v>2.429999999999998</v>
       </c>
       <c r="K341" t="n">
-        <v>23.07692307692335</v>
+        <v>20.00000000000027</v>
       </c>
       <c r="L341" t="n">
         <v>0.9899999999999995</v>
@@ -17670,7 +17684,7 @@
         <v>2.439999999999999</v>
       </c>
       <c r="K342" t="n">
-        <v>23.07692307692328</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L342" t="n">
         <v>0.9919999999999994</v>
@@ -17721,7 +17735,7 @@
         <v>2.449999999999998</v>
       </c>
       <c r="K343" t="n">
-        <v>28.57142857142884</v>
+        <v>42.85714285714327</v>
       </c>
       <c r="L343" t="n">
         <v>0.9949999999999994</v>
@@ -17772,7 +17786,7 @@
         <v>2.459999999999998</v>
       </c>
       <c r="K344" t="n">
-        <v>42.85714285714327</v>
+        <v>71.42857142857211</v>
       </c>
       <c r="L344" t="n">
         <v>0.9989999999999993</v>
@@ -17823,7 +17837,7 @@
         <v>2.469999999999998</v>
       </c>
       <c r="K345" t="n">
-        <v>46.66666666666715</v>
+        <v>75.00000000000084</v>
       </c>
       <c r="L345" t="n">
         <v>1.004999999999999</v>
@@ -17874,7 +17888,7 @@
         <v>2.469999999999998</v>
       </c>
       <c r="K346" t="n">
-        <v>46.66666666666715</v>
+        <v>71.42857142857211</v>
       </c>
       <c r="L346" t="n">
         <v>1.010999999999999</v>
@@ -17925,7 +17939,7 @@
         <v>2.489999999999998</v>
       </c>
       <c r="K347" t="n">
-        <v>25.00000000000021</v>
+        <v>50.00000000000028</v>
       </c>
       <c r="L347" t="n">
         <v>1.013999999999999</v>
@@ -17976,7 +17990,7 @@
         <v>2.489999999999998</v>
       </c>
       <c r="K348" t="n">
-        <v>20.00000000000015</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L348" t="n">
         <v>1.017999999999999</v>
@@ -18027,7 +18041,7 @@
         <v>2.489999999999998</v>
       </c>
       <c r="K349" t="n">
-        <v>14.28571428571438</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L349" t="n">
         <v>1.019999999999999</v>
@@ -18078,7 +18092,7 @@
         <v>2.509999999999998</v>
       </c>
       <c r="K350" t="n">
-        <v>14.28571428571438</v>
+        <v>0</v>
       </c>
       <c r="L350" t="n">
         <v>1.019999999999999</v>
@@ -18129,7 +18143,7 @@
         <v>2.509999999999998</v>
       </c>
       <c r="K351" t="n">
-        <v>7.692307692307758</v>
+        <v>-14.28571428571442</v>
       </c>
       <c r="L351" t="n">
         <v>1.019999999999999</v>
@@ -18180,7 +18194,7 @@
         <v>2.529999999999998</v>
       </c>
       <c r="K352" t="n">
-        <v>-6.666666666666717</v>
+        <v>-50.00000000000028</v>
       </c>
       <c r="L352" t="n">
         <v>1.016999999999999</v>
@@ -18231,7 +18245,7 @@
         <v>2.559999999999998</v>
       </c>
       <c r="K353" t="n">
-        <v>11.11111111111119</v>
+        <v>-20.00000000000009</v>
       </c>
       <c r="L353" t="n">
         <v>1.015999999999999</v>
@@ -18282,7 +18296,7 @@
         <v>2.569999999999998</v>
       </c>
       <c r="K354" t="n">
-        <v>5.263157894736885</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L354" t="n">
         <v>1.012999999999999</v>
@@ -18333,7 +18347,7 @@
         <v>2.579999999999997</v>
       </c>
       <c r="K355" t="n">
-        <v>5.263157894736885</v>
+        <v>-45.45454545454573</v>
       </c>
       <c r="L355" t="n">
         <v>1.007999999999999</v>
@@ -18384,7 +18398,7 @@
         <v>2.579999999999997</v>
       </c>
       <c r="K356" t="n">
-        <v>5.263157894736885</v>
+        <v>-33.33333333333358</v>
       </c>
       <c r="L356" t="n">
         <v>1.002999999999999</v>
@@ -18435,7 +18449,7 @@
         <v>2.589999999999997</v>
       </c>
       <c r="K357" t="n">
-        <v>5.263157894736885</v>
+        <v>-20.00000000000018</v>
       </c>
       <c r="L357" t="n">
         <v>1.000999999999999</v>
@@ -18486,7 +18500,7 @@
         <v>2.599999999999997</v>
       </c>
       <c r="K358" t="n">
-        <v>15.78947368421066</v>
+        <v>-9.090909090909182</v>
       </c>
       <c r="L358" t="n">
         <v>0.9999999999999991</v>
@@ -18537,7 +18551,7 @@
         <v>2.599999999999997</v>
       </c>
       <c r="K359" t="n">
-        <v>5.882352941176524</v>
+        <v>11.11111111111125</v>
       </c>
       <c r="L359" t="n">
         <v>0.9989999999999991</v>
@@ -18588,7 +18602,7 @@
         <v>2.599999999999997</v>
       </c>
       <c r="K360" t="n">
-        <v>5.882352941176524</v>
+        <v>11.11111111111125</v>
       </c>
       <c r="L360" t="n">
         <v>0.9999999999999991</v>
@@ -18639,7 +18653,7 @@
         <v>2.609999999999997</v>
       </c>
       <c r="K361" t="n">
-        <v>11.11111111111122</v>
+        <v>50.00000000000083</v>
       </c>
       <c r="L361" t="n">
         <v>1.001999999999999</v>
@@ -18690,7 +18704,7 @@
         <v>2.609999999999997</v>
       </c>
       <c r="K362" t="n">
-        <v>5.88235294117654</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L362" t="n">
         <v>1.005999999999999</v>
@@ -18741,7 +18755,7 @@
         <v>2.609999999999997</v>
       </c>
       <c r="K363" t="n">
-        <v>0</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L363" t="n">
         <v>1.006999999999999</v>
@@ -18792,7 +18806,7 @@
         <v>2.619999999999997</v>
       </c>
       <c r="K364" t="n">
-        <v>-12.50000000000014</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L364" t="n">
         <v>1.007999999999999</v>
@@ -18843,7 +18857,7 @@
         <v>2.619999999999997</v>
       </c>
       <c r="K365" t="n">
-        <v>-20.00000000000021</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L365" t="n">
         <v>1.009999999999999</v>
@@ -18894,7 +18908,7 @@
         <v>2.619999999999997</v>
       </c>
       <c r="K366" t="n">
-        <v>-20.00000000000021</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L366" t="n">
         <v>1.011999999999999</v>
@@ -18945,7 +18959,7 @@
         <v>2.629999999999996</v>
       </c>
       <c r="K367" t="n">
-        <v>-14.28571428571447</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L367" t="n">
         <v>1.011999999999999</v>
@@ -18996,7 +19010,7 @@
         <v>2.639999999999996</v>
       </c>
       <c r="K368" t="n">
-        <v>-6.666666666666756</v>
+        <v>0</v>
       </c>
       <c r="L368" t="n">
         <v>1.011999999999999</v>
@@ -19047,7 +19061,7 @@
         <v>2.639999999999996</v>
       </c>
       <c r="K369" t="n">
-        <v>-6.666666666666756</v>
+        <v>0</v>
       </c>
       <c r="L369" t="n">
         <v>1.011999999999999</v>
@@ -19098,7 +19112,7 @@
         <v>2.649999999999996</v>
       </c>
       <c r="K370" t="n">
-        <v>14.28571428571451</v>
+        <v>0</v>
       </c>
       <c r="L370" t="n">
         <v>1.012999999999999</v>
@@ -19149,7 +19163,7 @@
         <v>2.659999999999996</v>
       </c>
       <c r="K371" t="n">
-        <v>6.666666666666774</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L371" t="n">
         <v>1.011999999999999</v>
@@ -19200,7 +19214,7 @@
         <v>2.659999999999996</v>
       </c>
       <c r="K372" t="n">
-        <v>23.07692307692351</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L372" t="n">
         <v>1.010999999999999</v>
@@ -19251,7 +19265,7 @@
         <v>2.669999999999995</v>
       </c>
       <c r="K373" t="n">
-        <v>-9.090909090909292</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L373" t="n">
         <v>1.008999999999999</v>
@@ -19302,7 +19316,7 @@
         <v>2.689999999999996</v>
       </c>
       <c r="K374" t="n">
-        <v>16.66666666666697</v>
+        <v>14.28571428571451</v>
       </c>
       <c r="L374" t="n">
         <v>1.009999999999999</v>
@@ -19353,7 +19367,7 @@
         <v>2.689999999999996</v>
       </c>
       <c r="K375" t="n">
-        <v>27.27272727272777</v>
+        <v>14.28571428571451</v>
       </c>
       <c r="L375" t="n">
         <v>1.010999999999999</v>
@@ -19404,7 +19418,7 @@
         <v>2.689999999999996</v>
       </c>
       <c r="K376" t="n">
-        <v>27.27272727272777</v>
+        <v>33.33333333333383</v>
       </c>
       <c r="L376" t="n">
         <v>1.011999999999999</v>
@@ -19455,7 +19469,7 @@
         <v>2.689999999999996</v>
       </c>
       <c r="K377" t="n">
-        <v>20.00000000000036</v>
+        <v>20.00000000000027</v>
       </c>
       <c r="L377" t="n">
         <v>1.013999999999999</v>
@@ -19506,7 +19520,7 @@
         <v>2.699999999999996</v>
       </c>
       <c r="K378" t="n">
-        <v>20.00000000000027</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L378" t="n">
         <v>1.015999999999999</v>
@@ -19557,7 +19571,7 @@
         <v>2.729999999999996</v>
       </c>
       <c r="K379" t="n">
-        <v>-7.692307692307758</v>
+        <v>-25</v>
       </c>
       <c r="L379" t="n">
         <v>1.014999999999999</v>
@@ -19608,7 +19622,7 @@
         <v>2.729999999999996</v>
       </c>
       <c r="K380" t="n">
-        <v>-7.692307692307758</v>
+        <v>-14.28571428571424</v>
       </c>
       <c r="L380" t="n">
         <v>1.012999999999999</v>
@@ -19659,7 +19673,7 @@
         <v>2.729999999999996</v>
       </c>
       <c r="K381" t="n">
-        <v>-16.66666666666679</v>
+        <v>-14.28571428571424</v>
       </c>
       <c r="L381" t="n">
         <v>1.011999999999999</v>
@@ -19710,7 +19724,7 @@
         <v>2.749999999999996</v>
       </c>
       <c r="K382" t="n">
-        <v>0</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L382" t="n">
         <v>1.012999999999999</v>
@@ -19761,7 +19775,7 @@
         <v>2.759999999999996</v>
       </c>
       <c r="K383" t="n">
-        <v>6.666666666666695</v>
+        <v>14.28571428571415</v>
       </c>
       <c r="L383" t="n">
         <v>1.015999999999999</v>
@@ -19812,7 +19826,7 @@
         <v>2.769999999999996</v>
       </c>
       <c r="K384" t="n">
-        <v>6.666666666666695</v>
+        <v>0</v>
       </c>
       <c r="L384" t="n">
         <v>1.015999999999999</v>
@@ -19863,7 +19877,7 @@
         <v>2.779999999999996</v>
       </c>
       <c r="K385" t="n">
-        <v>12.50000000000007</v>
+        <v>11.11111111111108</v>
       </c>
       <c r="L385" t="n">
         <v>1.016999999999999</v>
@@ -19914,7 +19928,7 @@
         <v>2.789999999999996</v>
       </c>
       <c r="K386" t="n">
-        <v>17.64705882352953</v>
+        <v>20</v>
       </c>
       <c r="L386" t="n">
         <v>1.018999999999999</v>
@@ -19965,7 +19979,7 @@
         <v>2.799999999999995</v>
       </c>
       <c r="K387" t="n">
-        <v>17.64705882352953</v>
+        <v>0</v>
       </c>
       <c r="L387" t="n">
         <v>1.019999999999999</v>
@@ -20016,7 +20030,7 @@
         <v>2.799999999999995</v>
       </c>
       <c r="K388" t="n">
-        <v>12.50000000000007</v>
+        <v>42.85714285714327</v>
       </c>
       <c r="L388" t="n">
         <v>1.019999999999999</v>
@@ -20067,7 +20081,7 @@
         <v>2.799999999999995</v>
       </c>
       <c r="K389" t="n">
-        <v>12.50000000000007</v>
+        <v>42.85714285714327</v>
       </c>
       <c r="L389" t="n">
         <v>1.022999999999999</v>
@@ -20118,7 +20132,7 @@
         <v>2.799999999999995</v>
       </c>
       <c r="K390" t="n">
-        <v>6.666666666666695</v>
+        <v>42.85714285714327</v>
       </c>
       <c r="L390" t="n">
         <v>1.025999999999998</v>
@@ -20169,7 +20183,7 @@
         <v>2.809999999999995</v>
       </c>
       <c r="K391" t="n">
-        <v>20.00000000000009</v>
+        <v>33.33333333333383</v>
       </c>
       <c r="L391" t="n">
         <v>1.029999999999999</v>
@@ -20220,7 +20234,7 @@
         <v>2.809999999999995</v>
       </c>
       <c r="K392" t="n">
-        <v>20.00000000000009</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L392" t="n">
         <v>1.031999999999999</v>
@@ -20271,7 +20285,7 @@
         <v>2.819999999999995</v>
       </c>
       <c r="K393" t="n">
-        <v>20.00000000000009</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L393" t="n">
         <v>1.031999999999999</v>
@@ -20322,7 +20336,7 @@
         <v>2.829999999999995</v>
       </c>
       <c r="K394" t="n">
-        <v>14.28571428571438</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L394" t="n">
         <v>1.033999999999998</v>
@@ -20373,7 +20387,7 @@
         <v>2.829999999999995</v>
       </c>
       <c r="K395" t="n">
-        <v>14.28571428571438</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>1.034999999999999</v>
@@ -20424,7 +20438,7 @@
         <v>2.839999999999995</v>
       </c>
       <c r="K396" t="n">
-        <v>20.00000000000015</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L396" t="n">
         <v>1.035999999999998</v>
@@ -20475,7 +20489,7 @@
         <v>2.849999999999994</v>
       </c>
       <c r="K397" t="n">
-        <v>12.5000000000001</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L397" t="n">
         <v>1.036999999999999</v>
@@ -20526,7 +20540,7 @@
         <v>2.849999999999994</v>
       </c>
       <c r="K398" t="n">
-        <v>6.666666666666736</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L398" t="n">
         <v>1.037999999999999</v>
@@ -20577,7 +20591,7 @@
         <v>2.849999999999994</v>
       </c>
       <c r="K399" t="n">
-        <v>33.33333333333383</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L399" t="n">
         <v>1.038999999999999</v>
@@ -20628,7 +20642,7 @@
         <v>2.859999999999994</v>
       </c>
       <c r="K400" t="n">
-        <v>23.07692307692343</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L400" t="n">
         <v>1.038999999999999</v>
@@ -20679,7 +20693,7 @@
         <v>2.859999999999994</v>
       </c>
       <c r="K401" t="n">
-        <v>23.07692307692343</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L401" t="n">
         <v>1.037999999999999</v>
@@ -20730,7 +20744,7 @@
         <v>2.869999999999994</v>
       </c>
       <c r="K402" t="n">
-        <v>0</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L402" t="n">
         <v>1.035999999999999</v>
@@ -20781,7 +20795,7 @@
         <v>2.879999999999994</v>
       </c>
       <c r="K403" t="n">
-        <v>0</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L403" t="n">
         <v>1.035999999999999</v>
@@ -20832,7 +20846,7 @@
         <v>2.889999999999993</v>
       </c>
       <c r="K404" t="n">
-        <v>16.66666666666704</v>
+        <v>0</v>
       </c>
       <c r="L404" t="n">
         <v>1.035999999999999</v>
@@ -20883,7 +20897,7 @@
         <v>2.889999999999993</v>
       </c>
       <c r="K405" t="n">
-        <v>9.090909090909292</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L405" t="n">
         <v>1.035999999999999</v>
@@ -20985,7 +20999,7 @@
         <v>2.889999999999993</v>
       </c>
       <c r="K407" t="n">
-        <v>11.11111111111136</v>
+        <v>0</v>
       </c>
       <c r="L407" t="n">
         <v>1.034999999999999</v>
@@ -21036,7 +21050,7 @@
         <v>2.889999999999993</v>
       </c>
       <c r="K408" t="n">
-        <v>11.11111111111136</v>
+        <v>0</v>
       </c>
       <c r="L408" t="n">
         <v>1.034999999999999</v>
@@ -21087,7 +21101,7 @@
         <v>2.889999999999993</v>
       </c>
       <c r="K409" t="n">
-        <v>11.11111111111136</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L409" t="n">
         <v>1.034999999999999</v>
@@ -21189,7 +21203,7 @@
         <v>2.909999999999993</v>
       </c>
       <c r="K411" t="n">
-        <v>0</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L411" t="n">
         <v>1.035999999999999</v>
@@ -21240,7 +21254,7 @@
         <v>2.909999999999993</v>
       </c>
       <c r="K412" t="n">
-        <v>0</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L412" t="n">
         <v>1.037999999999999</v>
@@ -21291,7 +21305,7 @@
         <v>2.919999999999993</v>
       </c>
       <c r="K413" t="n">
-        <v>0</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L413" t="n">
         <v>1.037999999999999</v>
@@ -21342,7 +21356,7 @@
         <v>2.929999999999993</v>
       </c>
       <c r="K414" t="n">
-        <v>-20.00000000000044</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L414" t="n">
         <v>1.035999999999999</v>
@@ -21393,7 +21407,7 @@
         <v>2.939999999999992</v>
       </c>
       <c r="K415" t="n">
-        <v>-9.090909090909292</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L415" t="n">
         <v>1.034999999999999</v>
@@ -21495,7 +21509,7 @@
         <v>2.939999999999992</v>
       </c>
       <c r="K417" t="n">
-        <v>-11.11111111111136</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L417" t="n">
         <v>1.032999999999998</v>
@@ -21546,7 +21560,7 @@
         <v>2.959999999999992</v>
       </c>
       <c r="K418" t="n">
-        <v>-27.27272727272777</v>
+        <v>-42.85714285714354</v>
       </c>
       <c r="L418" t="n">
         <v>1.029999999999998</v>
@@ -21597,7 +21611,7 @@
         <v>2.969999999999993</v>
       </c>
       <c r="K419" t="n">
-        <v>-33.33333333333383</v>
+        <v>-42.85714285714327</v>
       </c>
       <c r="L419" t="n">
         <v>1.025999999999998</v>
@@ -21648,7 +21662,7 @@
         <v>2.969999999999993</v>
       </c>
       <c r="K420" t="n">
-        <v>-27.27272727272766</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L420" t="n">
         <v>1.022999999999998</v>
@@ -21699,7 +21713,7 @@
         <v>2.979999999999992</v>
       </c>
       <c r="K421" t="n">
-        <v>-16.66666666666691</v>
+        <v>-42.85714285714327</v>
       </c>
       <c r="L421" t="n">
         <v>1.019999999999998</v>
@@ -21750,7 +21764,7 @@
         <v>2.989999999999992</v>
       </c>
       <c r="K422" t="n">
-        <v>-16.66666666666691</v>
+        <v>-42.85714285714327</v>
       </c>
       <c r="L422" t="n">
         <v>1.015999999999999</v>
@@ -21801,7 +21815,7 @@
         <v>2.999999999999992</v>
       </c>
       <c r="K423" t="n">
-        <v>-16.66666666666691</v>
+        <v>-14.28571428571442</v>
       </c>
       <c r="L423" t="n">
         <v>1.013999999999999</v>
@@ -21852,7 +21866,7 @@
         <v>3.009999999999992</v>
       </c>
       <c r="K424" t="n">
-        <v>-33.33333333333383</v>
+        <v>-42.85714285714327</v>
       </c>
       <c r="L424" t="n">
         <v>1.011999999999999</v>
@@ -21903,7 +21917,7 @@
         <v>3.019999999999992</v>
       </c>
       <c r="K425" t="n">
-        <v>-38.46153846153905</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L425" t="n">
         <v>1.007999999999999</v>
@@ -21954,7 +21968,7 @@
         <v>3.029999999999991</v>
       </c>
       <c r="K426" t="n">
-        <v>-42.85714285714354</v>
+        <v>-55.55555555555625</v>
       </c>
       <c r="L426" t="n">
         <v>1.002999999999999</v>
@@ -22005,7 +22019,7 @@
         <v>3.049999999999991</v>
       </c>
       <c r="K427" t="n">
-        <v>-25.00000000000035</v>
+        <v>-11.11111111111125</v>
       </c>
       <c r="L427" t="n">
         <v>0.9999999999999989</v>
@@ -22056,7 +22070,7 @@
         <v>3.059999999999992</v>
       </c>
       <c r="K428" t="n">
-        <v>-29.4117647058827</v>
+        <v>-11.11111111111125</v>
       </c>
       <c r="L428" t="n">
         <v>0.997999999999999</v>
@@ -22107,7 +22121,7 @@
         <v>3.079999999999992</v>
       </c>
       <c r="K429" t="n">
-        <v>-36.84210526315828</v>
+        <v>-27.27272727272755</v>
       </c>
       <c r="L429" t="n">
         <v>0.994999999999999</v>
@@ -22158,7 +22172,7 @@
         <v>3.079999999999992</v>
       </c>
       <c r="K430" t="n">
-        <v>-33.33333333333366</v>
+        <v>-40.00000000000036</v>
       </c>
       <c r="L430" t="n">
         <v>0.9919999999999991</v>
@@ -22209,7 +22223,7 @@
         <v>3.099999999999992</v>
       </c>
       <c r="K431" t="n">
-        <v>-47.36842105263197</v>
+        <v>-45.45454545454573</v>
       </c>
       <c r="L431" t="n">
         <v>0.9859999999999991</v>
@@ -22260,7 +22274,7 @@
         <v>3.119999999999992</v>
       </c>
       <c r="K432" t="n">
-        <v>-33.33333333333358</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L432" t="n">
         <v>0.9829999999999991</v>
@@ -22311,7 +22325,7 @@
         <v>3.119999999999992</v>
       </c>
       <c r="K433" t="n">
-        <v>-30.0000000000002</v>
+        <v>-27.27272727272733</v>
       </c>
       <c r="L433" t="n">
         <v>0.9789999999999992</v>
@@ -22362,7 +22376,7 @@
         <v>3.119999999999992</v>
       </c>
       <c r="K434" t="n">
-        <v>-26.31578947368437</v>
+        <v>-20</v>
       </c>
       <c r="L434" t="n">
         <v>0.9759999999999993</v>
@@ -22413,7 +22427,7 @@
         <v>3.129999999999992</v>
       </c>
       <c r="K435" t="n">
-        <v>-36.84210526315803</v>
+        <v>-19.99999999999991</v>
       </c>
       <c r="L435" t="n">
         <v>0.9729999999999992</v>
@@ -22464,7 +22478,7 @@
         <v>3.129999999999992</v>
       </c>
       <c r="K436" t="n">
-        <v>-36.84210526315803</v>
+        <v>-49.99999999999972</v>
       </c>
       <c r="L436" t="n">
         <v>0.970999999999999</v>
@@ -22515,7 +22529,7 @@
         <v>3.169999999999992</v>
       </c>
       <c r="K437" t="n">
-        <v>-13.0434782608696</v>
+        <v>9.090909090909074</v>
       </c>
       <c r="L437" t="n">
         <v>0.970999999999999</v>
@@ -22566,7 +22580,7 @@
         <v>3.249999999999992</v>
       </c>
       <c r="K438" t="n">
-        <v>24.13793103448281</v>
+        <v>64.70588235294109</v>
       </c>
       <c r="L438" t="n">
         <v>0.979999999999999</v>
@@ -22617,7 +22631,7 @@
         <v>3.269999999999992</v>
       </c>
       <c r="K439" t="n">
-        <v>33.33333333333343</v>
+        <v>68.42105263157887</v>
       </c>
       <c r="L439" t="n">
         <v>0.9929999999999989</v>
@@ -22668,7 +22682,7 @@
         <v>3.299999999999992</v>
       </c>
       <c r="K440" t="n">
-        <v>21.21212121212128</v>
+        <v>60</v>
       </c>
       <c r="L440" t="n">
         <v>1.002999999999999</v>
@@ -22719,7 +22733,7 @@
         <v>3.329999999999992</v>
       </c>
       <c r="K441" t="n">
-        <v>8.571428571428589</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="L441" t="n">
         <v>1.011999999999999</v>
@@ -22770,7 +22784,7 @@
         <v>3.339999999999992</v>
       </c>
       <c r="K442" t="n">
-        <v>8.571428571428589</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L442" t="n">
         <v>1.017999999999999</v>
@@ -22821,7 +22835,7 @@
         <v>3.359999999999992</v>
       </c>
       <c r="K443" t="n">
-        <v>11.11111111111112</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L443" t="n">
         <v>1.025999999999999</v>
@@ -22872,7 +22886,7 @@
         <v>3.359999999999992</v>
       </c>
       <c r="K444" t="n">
-        <v>14.2857142857143</v>
+        <v>39.13043478260874</v>
       </c>
       <c r="L444" t="n">
         <v>1.033999999999999</v>
@@ -22923,7 +22937,7 @@
         <v>3.369999999999992</v>
       </c>
       <c r="K445" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L445" t="n">
         <v>1.041999999999999</v>
@@ -22974,7 +22988,7 @@
         <v>3.389999999999992</v>
       </c>
       <c r="K446" t="n">
-        <v>11.1111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L446" t="n">
         <v>1.047999999999999</v>
@@ -23025,7 +23039,7 @@
         <v>3.389999999999992</v>
       </c>
       <c r="K447" t="n">
-        <v>5.882352941176463</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L447" t="n">
         <v>1.049999999999998</v>
@@ -23076,7 +23090,7 @@
         <v>3.399999999999992</v>
       </c>
       <c r="K448" t="n">
-        <v>11.76470588235293</v>
+        <v>-53.84615384615375</v>
       </c>
       <c r="L448" t="n">
         <v>1.044999999999999</v>
@@ -23127,7 +23141,7 @@
         <v>3.409999999999992</v>
       </c>
       <c r="K449" t="n">
-        <v>21.2121212121212</v>
+        <v>-27.27272727272722</v>
       </c>
       <c r="L449" t="n">
         <v>1.038999999999998</v>
@@ -23178,7 +23192,7 @@
         <v>3.419999999999992</v>
       </c>
       <c r="K450" t="n">
-        <v>17.64705882352941</v>
+        <v>-11.11111111111114</v>
       </c>
       <c r="L450" t="n">
         <v>1.034999999999998</v>
@@ -23229,7 +23243,7 @@
         <v>3.439999999999992</v>
       </c>
       <c r="K451" t="n">
-        <v>29.41176470588236</v>
+        <v>20</v>
       </c>
       <c r="L451" t="n">
         <v>1.035999999999998</v>
@@ -23280,7 +23294,7 @@
         <v>3.439999999999992</v>
       </c>
       <c r="K452" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L452" t="n">
         <v>1.037999999999999</v>
@@ -23331,7 +23345,7 @@
         <v>3.449999999999992</v>
       </c>
       <c r="K453" t="n">
-        <v>21.2121212121212</v>
+        <v>-11.11111111111108</v>
       </c>
       <c r="L453" t="n">
         <v>1.036999999999999</v>
@@ -23382,7 +23396,7 @@
         <v>3.449999999999992</v>
       </c>
       <c r="K454" t="n">
-        <v>21.2121212121212</v>
+        <v>0</v>
       </c>
       <c r="L454" t="n">
         <v>1.035999999999998</v>
@@ -23433,7 +23447,7 @@
         <v>3.459999999999992</v>
       </c>
       <c r="K455" t="n">
-        <v>21.21212121212123</v>
+        <v>14.28571428571433</v>
       </c>
       <c r="L455" t="n">
         <v>1.034999999999998</v>
@@ -23484,7 +23498,7 @@
         <v>3.469999999999992</v>
       </c>
       <c r="K456" t="n">
-        <v>23.52941176470591</v>
+        <v>25.00000000000014</v>
       </c>
       <c r="L456" t="n">
         <v>1.036999999999998</v>
@@ -23535,7 +23549,7 @@
         <v>3.479999999999992</v>
       </c>
       <c r="K457" t="n">
-        <v>9.67741935483873</v>
+        <v>0</v>
       </c>
       <c r="L457" t="n">
         <v>1.037999999999998</v>
@@ -23586,7 +23600,7 @@
         <v>3.489999999999991</v>
       </c>
       <c r="K458" t="n">
-        <v>-16.66666666666673</v>
+        <v>0</v>
       </c>
       <c r="L458" t="n">
         <v>1.038999999999998</v>
@@ -23637,7 +23651,7 @@
         <v>3.489999999999991</v>
       </c>
       <c r="K459" t="n">
-        <v>-27.27272727272738</v>
+        <v>14.28571428571442</v>
       </c>
       <c r="L459" t="n">
         <v>1.038999999999999</v>
@@ -23688,7 +23702,7 @@
         <v>3.489999999999991</v>
       </c>
       <c r="K460" t="n">
-        <v>-15.78947368421058</v>
+        <v>-20.00000000000027</v>
       </c>
       <c r="L460" t="n">
         <v>1.039999999999999</v>
@@ -23739,7 +23753,7 @@
         <v>3.499999999999991</v>
       </c>
       <c r="K461" t="n">
-        <v>-5.882352941176508</v>
+        <v>-33.33333333333383</v>
       </c>
       <c r="L461" t="n">
         <v>1.037999999999998</v>
@@ -23790,7 +23804,7 @@
         <v>3.509999999999991</v>
       </c>
       <c r="K462" t="n">
-        <v>5.882352941176508</v>
+        <v>0</v>
       </c>
       <c r="L462" t="n">
         <v>1.036999999999998</v>
@@ -23841,7 +23855,7 @@
         <v>3.509999999999991</v>
       </c>
       <c r="K463" t="n">
-        <v>-6.666666666666717</v>
+        <v>0</v>
       </c>
       <c r="L463" t="n">
         <v>1.036999999999998</v>
@@ -23892,7 +23906,7 @@
         <v>3.509999999999991</v>
       </c>
       <c r="K464" t="n">
-        <v>-6.666666666666717</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L464" t="n">
         <v>1.036999999999998</v>
@@ -23994,7 +24008,7 @@
         <v>3.519999999999991</v>
       </c>
       <c r="K466" t="n">
-        <v>7.692307692307784</v>
+        <v>0</v>
       </c>
       <c r="L466" t="n">
         <v>1.036999999999998</v>
@@ -24045,7 +24059,7 @@
         <v>3.52999999999999</v>
       </c>
       <c r="K467" t="n">
-        <v>14.28571428571447</v>
+        <v>0</v>
       </c>
       <c r="L467" t="n">
         <v>1.037999999999998</v>
@@ -24096,7 +24110,7 @@
         <v>3.53999999999999</v>
       </c>
       <c r="K468" t="n">
-        <v>0</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L468" t="n">
         <v>1.036999999999998</v>
@@ -24147,7 +24161,7 @@
         <v>3.53999999999999</v>
       </c>
       <c r="K469" t="n">
-        <v>-7.692307692307811</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L469" t="n">
         <v>1.035999999999998</v>
@@ -24249,7 +24263,7 @@
         <v>3.54999999999999</v>
       </c>
       <c r="K471" t="n">
-        <v>-9.090909090909257</v>
+        <v>0</v>
       </c>
       <c r="L471" t="n">
         <v>1.035999999999998</v>
@@ -24300,7 +24314,7 @@
         <v>3.54999999999999</v>
       </c>
       <c r="K472" t="n">
-        <v>-9.090909090909257</v>
+        <v>0</v>
       </c>
       <c r="L472" t="n">
         <v>1.035999999999998</v>
@@ -24453,7 +24467,7 @@
         <v>3.55999999999999</v>
       </c>
       <c r="K475" t="n">
-        <v>20.00000000000044</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L475" t="n">
         <v>1.036999999999998</v>
@@ -24555,7 +24569,7 @@
         <v>3.56999999999999</v>
       </c>
       <c r="K477" t="n">
-        <v>11.11111111111136</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L477" t="n">
         <v>1.037999999999998</v>
@@ -24606,7 +24620,7 @@
         <v>3.56999999999999</v>
       </c>
       <c r="K478" t="n">
-        <v>0</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L478" t="n">
         <v>1.038999999999998</v>
@@ -24657,7 +24671,7 @@
         <v>3.56999999999999</v>
       </c>
       <c r="K479" t="n">
-        <v>0</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L479" t="n">
         <v>1.039999999999999</v>
@@ -24708,7 +24722,7 @@
         <v>3.579999999999989</v>
       </c>
       <c r="K480" t="n">
-        <v>-11.11111111111136</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L480" t="n">
         <v>1.039999999999999</v>
@@ -24759,7 +24773,7 @@
         <v>3.589999999999989</v>
       </c>
       <c r="K481" t="n">
-        <v>11.11111111111136</v>
+        <v>0</v>
       </c>
       <c r="L481" t="n">
         <v>1.039999999999999</v>
@@ -24810,7 +24824,7 @@
         <v>3.599999999999989</v>
       </c>
       <c r="K482" t="n">
-        <v>-11.11111111111136</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L482" t="n">
         <v>1.038999999999999</v>
@@ -24861,7 +24875,7 @@
         <v>3.619999999999989</v>
       </c>
       <c r="K483" t="n">
-        <v>-27.27272727272777</v>
+        <v>-42.85714285714354</v>
       </c>
       <c r="L483" t="n">
         <v>1.035999999999998</v>
@@ -24912,7 +24926,7 @@
         <v>3.639999999999989</v>
       </c>
       <c r="K484" t="n">
-        <v>-38.46153846153905</v>
+        <v>-75.00000000000084</v>
       </c>
       <c r="L484" t="n">
         <v>1.030999999999998</v>
@@ -24963,7 +24977,7 @@
         <v>3.649999999999989</v>
       </c>
       <c r="K485" t="n">
-        <v>-28.57142857142902</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L485" t="n">
         <v>1.025999999999998</v>
@@ -25014,7 +25028,7 @@
         <v>3.649999999999989</v>
       </c>
       <c r="K486" t="n">
-        <v>-23.07692307692343</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L486" t="n">
         <v>1.021999999999998</v>
@@ -25065,7 +25079,7 @@
         <v>3.649999999999989</v>
       </c>
       <c r="K487" t="n">
-        <v>-33.33333333333383</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L487" t="n">
         <v>1.017999999999998</v>
@@ -25116,7 +25130,7 @@
         <v>3.659999999999989</v>
       </c>
       <c r="K488" t="n">
-        <v>-16.66666666666691</v>
+        <v>-33.33333333333374</v>
       </c>
       <c r="L488" t="n">
         <v>1.014999999999998</v>
@@ -25167,7 +25181,7 @@
         <v>3.669999999999988</v>
       </c>
       <c r="K489" t="n">
-        <v>-7.692307692307811</v>
+        <v>-11.11111111111125</v>
       </c>
       <c r="L489" t="n">
         <v>1.012999999999999</v>
@@ -25218,7 +25232,7 @@
         <v>3.669999999999988</v>
       </c>
       <c r="K490" t="n">
-        <v>-7.692307692307811</v>
+        <v>-25.00000000000028</v>
       </c>
       <c r="L490" t="n">
         <v>1.011999999999998</v>
@@ -25269,7 +25283,7 @@
         <v>3.679999999999988</v>
       </c>
       <c r="K491" t="n">
-        <v>-7.692307692307811</v>
+        <v>0</v>
       </c>
       <c r="L491" t="n">
         <v>1.010999999999999</v>
@@ -25320,7 +25334,7 @@
         <v>3.689999999999988</v>
       </c>
       <c r="K492" t="n">
-        <v>-14.28571428571451</v>
+        <v>14.28571428571451</v>
       </c>
       <c r="L492" t="n">
         <v>1.009999999999998</v>
@@ -25371,7 +25385,7 @@
         <v>3.689999999999988</v>
       </c>
       <c r="K493" t="n">
-        <v>-14.28571428571451</v>
+        <v>60.00000000000133</v>
       </c>
       <c r="L493" t="n">
         <v>1.010999999999999</v>
@@ -25422,7 +25436,7 @@
         <v>3.689999999999988</v>
       </c>
       <c r="K494" t="n">
-        <v>-14.28571428571451</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L494" t="n">
         <v>1.013999999999998</v>
@@ -25473,7 +25487,7 @@
         <v>3.699999999999988</v>
       </c>
       <c r="K495" t="n">
-        <v>-28.57142857142902</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L495" t="n">
         <v>1.014999999999998</v>
@@ -25524,7 +25538,7 @@
         <v>3.709999999999988</v>
       </c>
       <c r="K496" t="n">
-        <v>-14.28571428571451</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L496" t="n">
         <v>1.016999999999998</v>
@@ -25575,7 +25589,7 @@
         <v>3.719999999999987</v>
       </c>
       <c r="K497" t="n">
-        <v>-20.00000000000033</v>
+        <v>0</v>
       </c>
       <c r="L497" t="n">
         <v>1.017999999999998</v>
@@ -25626,7 +25640,7 @@
         <v>3.729999999999987</v>
       </c>
       <c r="K498" t="n">
-        <v>-12.50000000000021</v>
+        <v>0</v>
       </c>
       <c r="L498" t="n">
         <v>1.018999999999998</v>
@@ -25677,7 +25691,7 @@
         <v>3.729999999999987</v>
       </c>
       <c r="K499" t="n">
-        <v>-12.50000000000021</v>
+        <v>0</v>
       </c>
       <c r="L499" t="n">
         <v>1.018999999999998</v>
@@ -25728,7 +25742,7 @@
         <v>3.729999999999987</v>
       </c>
       <c r="K500" t="n">
-        <v>-6.666666666666774</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L500" t="n">
         <v>1.018999999999998</v>
@@ -25779,7 +25793,7 @@
         <v>3.729999999999987</v>
       </c>
       <c r="K501" t="n">
-        <v>-14.28571428571451</v>
+        <v>0</v>
       </c>
       <c r="L501" t="n">
         <v>1.017999999999998</v>
@@ -25830,7 +25844,7 @@
         <v>3.739999999999987</v>
       </c>
       <c r="K502" t="n">
-        <v>0</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L502" t="n">
         <v>1.018999999999998</v>
@@ -25881,7 +25895,7 @@
         <v>3.739999999999987</v>
       </c>
       <c r="K503" t="n">
-        <v>16.66666666666697</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L503" t="n">
         <v>1.019999999999998</v>
@@ -25932,7 +25946,7 @@
         <v>3.749999999999987</v>
       </c>
       <c r="K504" t="n">
-        <v>27.27272727272788</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L504" t="n">
         <v>1.019999999999998</v>
@@ -25983,7 +25997,7 @@
         <v>3.749999999999987</v>
       </c>
       <c r="K505" t="n">
-        <v>20.00000000000044</v>
+        <v>0</v>
       </c>
       <c r="L505" t="n">
         <v>1.020999999999998</v>
@@ -26034,7 +26048,7 @@
         <v>3.759999999999986</v>
       </c>
       <c r="K506" t="n">
-        <v>9.090909090909292</v>
+        <v>0</v>
       </c>
       <c r="L506" t="n">
         <v>1.019999999999998</v>
@@ -26085,7 +26099,7 @@
         <v>3.769999999999986</v>
       </c>
       <c r="K507" t="n">
-        <v>16.66666666666704</v>
+        <v>0</v>
       </c>
       <c r="L507" t="n">
         <v>1.020999999999998</v>
@@ -26136,7 +26150,7 @@
         <v>3.779999999999986</v>
       </c>
       <c r="K508" t="n">
-        <v>0</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L508" t="n">
         <v>1.019999999999998</v>
@@ -26238,7 +26252,7 @@
         <v>3.799999999999986</v>
       </c>
       <c r="K510" t="n">
-        <v>-7.692307692307863</v>
+        <v>-14.2857142857146</v>
       </c>
       <c r="L510" t="n">
         <v>1.018999999999998</v>
@@ -26289,7 +26303,7 @@
         <v>3.799999999999986</v>
       </c>
       <c r="K511" t="n">
-        <v>-16.66666666666704</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L511" t="n">
         <v>1.017999999999998</v>
@@ -26340,7 +26354,7 @@
         <v>3.809999999999985</v>
       </c>
       <c r="K512" t="n">
-        <v>-16.66666666666704</v>
+        <v>-42.85714285714381</v>
       </c>
       <c r="L512" t="n">
         <v>1.014999999999998</v>
@@ -26391,7 +26405,7 @@
         <v>3.819999999999985</v>
       </c>
       <c r="K513" t="n">
-        <v>-7.692307692307863</v>
+        <v>-14.2857142857146</v>
       </c>
       <c r="L513" t="n">
         <v>1.012999999999999</v>
@@ -26442,7 +26456,7 @@
         <v>3.829999999999985</v>
       </c>
       <c r="K514" t="n">
-        <v>-14.2857142857146</v>
+        <v>-25.00000000000055</v>
       </c>
       <c r="L514" t="n">
         <v>1.010999999999999</v>
@@ -26544,7 +26558,7 @@
         <v>3.839999999999985</v>
       </c>
       <c r="K516" t="n">
-        <v>-7.692307692307863</v>
+        <v>-14.2857142857146</v>
       </c>
       <c r="L516" t="n">
         <v>1.009999999999998</v>
@@ -26646,7 +26660,7 @@
         <v>3.849999999999985</v>
       </c>
       <c r="K518" t="n">
-        <v>-16.66666666666704</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L518" t="n">
         <v>1.007999999999999</v>
@@ -26697,7 +26711,7 @@
         <v>3.849999999999985</v>
       </c>
       <c r="K519" t="n">
-        <v>-16.66666666666704</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L519" t="n">
         <v>1.005999999999999</v>
@@ -26748,7 +26762,7 @@
         <v>3.849999999999985</v>
       </c>
       <c r="K520" t="n">
-        <v>-16.66666666666704</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L520" t="n">
         <v>1.004999999999999</v>
@@ -26799,7 +26813,7 @@
         <v>3.859999999999984</v>
       </c>
       <c r="K521" t="n">
-        <v>-23.07692307692359</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L521" t="n">
         <v>1.002999999999999</v>
@@ -26850,7 +26864,7 @@
         <v>3.869999999999984</v>
       </c>
       <c r="K522" t="n">
-        <v>-23.07692307692359</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L522" t="n">
         <v>1.002999999999999</v>
@@ -26901,7 +26915,7 @@
         <v>3.869999999999984</v>
       </c>
       <c r="K523" t="n">
-        <v>-23.07692307692359</v>
+        <v>0</v>
       </c>
       <c r="L523" t="n">
         <v>1.001999999999999</v>
@@ -26952,7 +26966,7 @@
         <v>3.869999999999984</v>
       </c>
       <c r="K524" t="n">
-        <v>-16.66666666666704</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L524" t="n">
         <v>1.001999999999999</v>
@@ -27003,7 +27017,7 @@
         <v>3.869999999999984</v>
       </c>
       <c r="K525" t="n">
-        <v>-16.66666666666704</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L525" t="n">
         <v>1.000999999999999</v>
@@ -27105,7 +27119,7 @@
         <v>3.879999999999984</v>
       </c>
       <c r="K527" t="n">
-        <v>-9.090909090909292</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L527" t="n">
         <v>1.000999999999999</v>
@@ -27156,7 +27170,7 @@
         <v>3.889999999999984</v>
       </c>
       <c r="K528" t="n">
-        <v>-9.090909090909292</v>
+        <v>0</v>
       </c>
       <c r="L528" t="n">
         <v>1.000999999999999</v>
@@ -27207,7 +27221,7 @@
         <v>3.899999999999983</v>
       </c>
       <c r="K529" t="n">
-        <v>-27.27272727272788</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L529" t="n">
         <v>0.9999999999999988</v>
@@ -27258,7 +27272,7 @@
         <v>3.899999999999983</v>
       </c>
       <c r="K530" t="n">
-        <v>-20.00000000000044</v>
+        <v>0</v>
       </c>
       <c r="L530" t="n">
         <v>0.9989999999999988</v>
@@ -27309,7 +27323,7 @@
         <v>3.919999999999983</v>
       </c>
       <c r="K531" t="n">
-        <v>-33.33333333333395</v>
+        <v>-60.0000000000008</v>
       </c>
       <c r="L531" t="n">
         <v>0.9969999999999988</v>
@@ -27360,7 +27374,7 @@
         <v>3.939999999999984</v>
       </c>
       <c r="K532" t="n">
-        <v>-38.46153846153905</v>
+        <v>-71.42857142857211</v>
       </c>
       <c r="L532" t="n">
         <v>0.9919999999999988</v>
@@ -27411,7 +27425,7 @@
         <v>3.969999999999984</v>
       </c>
       <c r="K533" t="n">
-        <v>-20.00000000000021</v>
+        <v>-20.00000000000009</v>
       </c>
       <c r="L533" t="n">
         <v>0.9899999999999988</v>
@@ -27462,7 +27476,7 @@
         <v>3.999999999999984</v>
       </c>
       <c r="K534" t="n">
-        <v>5.882352941176508</v>
+        <v>7.692307692307705</v>
       </c>
       <c r="L534" t="n">
         <v>0.9909999999999988</v>
@@ -27517,7 +27531,7 @@
         <v>4.009999999999984</v>
       </c>
       <c r="K535" t="n">
-        <v>-5.882352941176508</v>
+        <v>-7.692307692307705</v>
       </c>
       <c r="L535" t="n">
         <v>0.9909999999999988</v>
@@ -27574,7 +27588,7 @@
         <v>4.009999999999984</v>
       </c>
       <c r="K536" t="n">
-        <v>-5.882352941176508</v>
+        <v>-7.692307692307705</v>
       </c>
       <c r="L536" t="n">
         <v>0.9899999999999988</v>
@@ -27631,7 +27645,7 @@
         <v>4.019999999999984</v>
       </c>
       <c r="K537" t="n">
-        <v>-11.11111111111119</v>
+        <v>-7.692307692307705</v>
       </c>
       <c r="L537" t="n">
         <v>0.9879999999999989</v>
@@ -27688,7 +27702,7 @@
         <v>4.019999999999984</v>
       </c>
       <c r="K538" t="n">
-        <v>-5.882352941176508</v>
+        <v>0</v>
       </c>
       <c r="L538" t="n">
         <v>0.9869999999999989</v>
@@ -27745,7 +27759,7 @@
         <v>4.029999999999983</v>
       </c>
       <c r="K539" t="n">
-        <v>-11.11111111111119</v>
+        <v>-7.692307692307705</v>
       </c>
       <c r="L539" t="n">
         <v>0.9859999999999989</v>
@@ -27802,7 +27816,7 @@
         <v>4.029999999999983</v>
       </c>
       <c r="K540" t="n">
-        <v>-11.11111111111119</v>
+        <v>9.090909090909109</v>
       </c>
       <c r="L540" t="n">
         <v>0.9849999999999989</v>
@@ -27859,7 +27873,7 @@
         <v>4.029999999999983</v>
       </c>
       <c r="K541" t="n">
-        <v>-5.882352941176508</v>
+        <v>33.33333333333341</v>
       </c>
       <c r="L541" t="n">
         <v>0.9859999999999989</v>
@@ -27916,7 +27930,7 @@
         <v>4.029999999999983</v>
       </c>
       <c r="K542" t="n">
-        <v>-12.50000000000007</v>
+        <v>0</v>
       </c>
       <c r="L542" t="n">
         <v>0.988999999999999</v>
@@ -27975,7 +27989,7 @@
         <v>4.039999999999983</v>
       </c>
       <c r="K543" t="n">
-        <v>-5.882352941176508</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L543" t="n">
         <v>0.989999999999999</v>
@@ -28146,7 +28160,7 @@
         <v>4.059999999999983</v>
       </c>
       <c r="K546" t="n">
-        <v>-11.11111111111119</v>
+        <v>0</v>
       </c>
       <c r="L546" t="n">
         <v>0.987999999999999</v>
@@ -28205,7 +28219,7 @@
         <v>4.059999999999983</v>
       </c>
       <c r="K547" t="n">
-        <v>-11.11111111111119</v>
+        <v>0</v>
       </c>
       <c r="L547" t="n">
         <v>0.987999999999999</v>
@@ -28262,7 +28276,7 @@
         <v>4.059999999999983</v>
       </c>
       <c r="K548" t="n">
-        <v>-5.882352941176508</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L548" t="n">
         <v>0.987999999999999</v>
@@ -28321,7 +28335,7 @@
         <v>4.069999999999983</v>
       </c>
       <c r="K549" t="n">
-        <v>5.882352941176508</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L549" t="n">
         <v>0.989999999999999</v>
@@ -28378,7 +28392,7 @@
         <v>4.079999999999982</v>
       </c>
       <c r="K550" t="n">
-        <v>11.11111111111119</v>
+        <v>60.00000000000133</v>
       </c>
       <c r="L550" t="n">
         <v>0.9929999999999989</v>
@@ -28437,7 +28451,7 @@
         <v>4.079999999999982</v>
       </c>
       <c r="K551" t="n">
-        <v>25.00000000000021</v>
+        <v>60.00000000000133</v>
       </c>
       <c r="L551" t="n">
         <v>0.9959999999999989</v>
@@ -28494,7 +28508,7 @@
         <v>4.099999999999982</v>
       </c>
       <c r="K552" t="n">
-        <v>25.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L552" t="n">
         <v>0.9969999999999988</v>
@@ -28551,7 +28565,7 @@
         <v>4.099999999999982</v>
       </c>
       <c r="K553" t="n">
-        <v>7.692307692307811</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L553" t="n">
         <v>0.9969999999999988</v>
@@ -28608,7 +28622,7 @@
         <v>4.109999999999982</v>
       </c>
       <c r="K554" t="n">
-        <v>-27.27272727272788</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L554" t="n">
         <v>0.9949999999999989</v>
@@ -28665,7 +28679,7 @@
         <v>4.119999999999981</v>
       </c>
       <c r="K555" t="n">
-        <v>-27.27272727272788</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L555" t="n">
         <v>0.9919999999999989</v>
@@ -28722,7 +28736,7 @@
         <v>4.129999999999981</v>
       </c>
       <c r="K556" t="n">
-        <v>-33.33333333333407</v>
+        <v>-42.85714285714381</v>
       </c>
       <c r="L556" t="n">
         <v>0.9889999999999988</v>
@@ -28779,7 +28793,7 @@
         <v>4.129999999999981</v>
       </c>
       <c r="K557" t="n">
-        <v>-27.27272727272788</v>
+        <v>-42.85714285714381</v>
       </c>
       <c r="L557" t="n">
         <v>0.9859999999999987</v>
@@ -28836,7 +28850,7 @@
         <v>4.139999999999981</v>
       </c>
       <c r="K558" t="n">
-        <v>-33.33333333333407</v>
+        <v>-71.42857142857302</v>
       </c>
       <c r="L558" t="n">
         <v>0.9819999999999987</v>
@@ -28893,7 +28907,7 @@
         <v>4.149999999999981</v>
       </c>
       <c r="K559" t="n">
-        <v>-16.66666666666704</v>
+        <v>-71.42857142857302</v>
       </c>
       <c r="L559" t="n">
         <v>0.9779999999999986</v>
@@ -28950,7 +28964,7 @@
         <v>4.149999999999981</v>
       </c>
       <c r="K560" t="n">
-        <v>-16.66666666666704</v>
+        <v>-71.42857142857302</v>
       </c>
       <c r="L560" t="n">
         <v>0.9729999999999988</v>
@@ -29007,7 +29021,7 @@
         <v>4.159999999999981</v>
       </c>
       <c r="K561" t="n">
-        <v>-7.692307692307863</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L561" t="n">
         <v>0.9689999999999989</v>
@@ -29064,7 +29078,7 @@
         <v>4.16999999999998</v>
       </c>
       <c r="K562" t="n">
-        <v>0</v>
+        <v>-14.2857142857146</v>
       </c>
       <c r="L562" t="n">
         <v>0.9679999999999989</v>
@@ -29121,7 +29135,7 @@
         <v>4.16999999999998</v>
       </c>
       <c r="K563" t="n">
-        <v>-7.692307692307863</v>
+        <v>0</v>
       </c>
       <c r="L563" t="n">
         <v>0.966999999999999</v>
@@ -29178,7 +29192,7 @@
         <v>4.17999999999998</v>
       </c>
       <c r="K564" t="n">
-        <v>-23.07692307692359</v>
+        <v>0</v>
       </c>
       <c r="L564" t="n">
         <v>0.965999999999999</v>
@@ -29235,7 +29249,7 @@
         <v>4.18999999999998</v>
       </c>
       <c r="K565" t="n">
-        <v>-28.57142857142921</v>
+        <v>0</v>
       </c>
       <c r="L565" t="n">
         <v>0.964999999999999</v>
@@ -29292,7 +29306,7 @@
         <v>4.18999999999998</v>
       </c>
       <c r="K566" t="n">
-        <v>-23.07692307692359</v>
+        <v>0</v>
       </c>
       <c r="L566" t="n">
         <v>0.9649999999999987</v>
@@ -29349,7 +29363,7 @@
         <v>4.19999999999998</v>
       </c>
       <c r="K567" t="n">
-        <v>-14.2857142857146</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L567" t="n">
         <v>0.965999999999999</v>
@@ -29406,7 +29420,7 @@
         <v>4.19999999999998</v>
       </c>
       <c r="K568" t="n">
-        <v>-14.2857142857146</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L568" t="n">
         <v>0.9679999999999991</v>
@@ -29463,7 +29477,7 @@
         <v>4.20999999999998</v>
       </c>
       <c r="K569" t="n">
-        <v>-28.57142857142921</v>
+        <v>0</v>
       </c>
       <c r="L569" t="n">
         <v>0.9679999999999989</v>
@@ -29520,7 +29534,7 @@
         <v>4.20999999999998</v>
       </c>
       <c r="K570" t="n">
-        <v>-38.46153846153931</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L570" t="n">
         <v>0.9679999999999989</v>
@@ -29577,7 +29591,7 @@
         <v>4.20999999999998</v>
       </c>
       <c r="K571" t="n">
-        <v>-38.46153846153931</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L571" t="n">
         <v>0.966999999999999</v>
@@ -29628,7 +29642,7 @@
         <v>4.20999999999998</v>
       </c>
       <c r="K572" t="n">
-        <v>-27.27272727272788</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L572" t="n">
         <v>0.9649999999999987</v>
@@ -29679,7 +29693,7 @@
         <v>4.219999999999979</v>
       </c>
       <c r="K573" t="n">
-        <v>-16.66666666666704</v>
+        <v>0</v>
       </c>
       <c r="L573" t="n">
         <v>0.9639999999999989</v>
@@ -29730,7 +29744,7 @@
         <v>4.24999999999998</v>
       </c>
       <c r="K574" t="n">
-        <v>14.28571428571451</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L574" t="n">
         <v>0.9669999999999987</v>
@@ -29781,7 +29795,7 @@
         <v>4.24999999999998</v>
       </c>
       <c r="K575" t="n">
-        <v>23.07692307692343</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L575" t="n">
         <v>0.9709999999999986</v>
@@ -29832,7 +29846,7 @@
         <v>4.26999999999998</v>
       </c>
       <c r="K576" t="n">
-        <v>14.28571428571442</v>
+        <v>14.28571428571424</v>
       </c>
       <c r="L576" t="n">
         <v>0.9729999999999986</v>
@@ -29883,7 +29897,7 @@
         <v>4.26999999999998</v>
       </c>
       <c r="K577" t="n">
-        <v>14.28571428571442</v>
+        <v>14.28571428571424</v>
       </c>
       <c r="L577" t="n">
         <v>0.9739999999999986</v>
@@ -29934,7 +29948,7 @@
         <v>4.27999999999998</v>
       </c>
       <c r="K578" t="n">
-        <v>14.28571428571442</v>
+        <v>14.28571428571424</v>
       </c>
       <c r="L578" t="n">
         <v>0.9739999999999986</v>
@@ -29985,7 +29999,7 @@
         <v>4.27999999999998</v>
       </c>
       <c r="K579" t="n">
-        <v>7.692307692307758</v>
+        <v>14.28571428571424</v>
       </c>
       <c r="L579" t="n">
         <v>0.9749999999999985</v>
@@ -30036,7 +30050,7 @@
         <v>4.27999999999998</v>
       </c>
       <c r="K580" t="n">
-        <v>7.692307692307758</v>
+        <v>14.28571428571424</v>
       </c>
       <c r="L580" t="n">
         <v>0.9759999999999988</v>
@@ -30087,7 +30101,7 @@
         <v>4.28999999999998</v>
       </c>
       <c r="K581" t="n">
-        <v>7.692307692307758</v>
+        <v>25</v>
       </c>
       <c r="L581" t="n">
         <v>0.9779999999999986</v>
@@ -30138,7 +30152,7 @@
         <v>4.28999999999998</v>
       </c>
       <c r="K582" t="n">
-        <v>0</v>
+        <v>14.28571428571424</v>
       </c>
       <c r="L582" t="n">
         <v>0.9799999999999986</v>
@@ -30189,7 +30203,7 @@
         <v>4.28999999999998</v>
       </c>
       <c r="K583" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L583" t="n">
         <v>0.9809999999999987</v>
@@ -30240,7 +30254,7 @@
         <v>4.28999999999998</v>
       </c>
       <c r="K584" t="n">
-        <v>9.090909090909145</v>
+        <v>-50</v>
       </c>
       <c r="L584" t="n">
         <v>0.9789999999999986</v>
@@ -30291,7 +30305,7 @@
         <v>4.299999999999979</v>
       </c>
       <c r="K585" t="n">
-        <v>9.090909090909145</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L585" t="n">
         <v>0.9759999999999988</v>
@@ -30342,7 +30356,7 @@
         <v>4.299999999999979</v>
       </c>
       <c r="K586" t="n">
-        <v>9.090909090909145</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L586" t="n">
         <v>0.9749999999999988</v>
@@ -30495,7 +30509,7 @@
         <v>4.299999999999979</v>
       </c>
       <c r="K589" t="n">
-        <v>11.11111111111114</v>
+        <v>0</v>
       </c>
       <c r="L589" t="n">
         <v>0.9739999999999988</v>
@@ -30546,7 +30560,7 @@
         <v>4.319999999999979</v>
       </c>
       <c r="K590" t="n">
-        <v>27.27272727272744</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L590" t="n">
         <v>0.9759999999999988</v>
@@ -30597,7 +30611,7 @@
         <v>4.329999999999979</v>
       </c>
       <c r="K591" t="n">
-        <v>16.66666666666679</v>
+        <v>0</v>
       </c>
       <c r="L591" t="n">
         <v>0.9759999999999988</v>
@@ -30648,7 +30662,7 @@
         <v>4.339999999999979</v>
       </c>
       <c r="K592" t="n">
-        <v>23.07692307692328</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L592" t="n">
         <v>0.9769999999999988</v>
@@ -30699,7 +30713,7 @@
         <v>4.339999999999979</v>
       </c>
       <c r="K593" t="n">
-        <v>16.66666666666679</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L593" t="n">
         <v>0.9779999999999986</v>
@@ -30750,7 +30764,7 @@
         <v>4.339999999999979</v>
       </c>
       <c r="K594" t="n">
-        <v>-11.11111111111125</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L594" t="n">
         <v>0.9789999999999986</v>
@@ -30801,7 +30815,7 @@
         <v>4.339999999999979</v>
       </c>
       <c r="K595" t="n">
-        <v>-11.11111111111125</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L595" t="n">
         <v>0.9809999999999987</v>
@@ -30852,7 +30866,7 @@
         <v>4.339999999999979</v>
       </c>
       <c r="K596" t="n">
-        <v>14.2857142857146</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L596" t="n">
         <v>0.9829999999999985</v>
@@ -30903,7 +30917,7 @@
         <v>4.349999999999978</v>
       </c>
       <c r="K597" t="n">
-        <v>0</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L597" t="n">
         <v>0.9839999999999985</v>
@@ -30954,7 +30968,7 @@
         <v>4.359999999999978</v>
       </c>
       <c r="K598" t="n">
-        <v>25.00000000000055</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L598" t="n">
         <v>0.9859999999999985</v>
@@ -31005,7 +31019,7 @@
         <v>4.369999999999978</v>
       </c>
       <c r="K599" t="n">
-        <v>11.11111111111136</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L599" t="n">
         <v>0.9869999999999985</v>
@@ -31107,7 +31121,7 @@
         <v>4.389999999999977</v>
       </c>
       <c r="K601" t="n">
-        <v>0</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L601" t="n">
         <v>0.9869999999999985</v>
@@ -31158,7 +31172,7 @@
         <v>4.389999999999977</v>
       </c>
       <c r="K602" t="n">
-        <v>0</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L602" t="n">
         <v>0.9859999999999985</v>
@@ -31209,7 +31223,7 @@
         <v>4.399999999999977</v>
       </c>
       <c r="K603" t="n">
-        <v>9.090909090909292</v>
+        <v>0</v>
       </c>
       <c r="L603" t="n">
         <v>0.9859999999999985</v>
@@ -31260,7 +31274,7 @@
         <v>4.399999999999977</v>
       </c>
       <c r="K604" t="n">
-        <v>9.090909090909292</v>
+        <v>0</v>
       </c>
       <c r="L604" t="n">
         <v>0.9859999999999985</v>
@@ -31311,7 +31325,7 @@
         <v>4.409999999999977</v>
       </c>
       <c r="K605" t="n">
-        <v>27.27272727272788</v>
+        <v>14.2857142857146</v>
       </c>
       <c r="L605" t="n">
         <v>0.9869999999999985</v>
@@ -31362,7 +31376,7 @@
         <v>4.449999999999977</v>
       </c>
       <c r="K606" t="n">
-        <v>46.66666666666742</v>
+        <v>60.0000000000008</v>
       </c>
       <c r="L606" t="n">
         <v>0.9919999999999985</v>
@@ -31413,7 +31427,7 @@
         <v>4.479999999999977</v>
       </c>
       <c r="K607" t="n">
-        <v>22.22222222222249</v>
+        <v>16.66666666666679</v>
       </c>
       <c r="L607" t="n">
         <v>0.9949999999999986</v>
@@ -31464,7 +31478,7 @@
         <v>4.509999999999978</v>
       </c>
       <c r="K608" t="n">
-        <v>33.33333333333365</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L608" t="n">
         <v>0.9999999999999984</v>
@@ -31515,7 +31529,7 @@
         <v>4.519999999999977</v>
       </c>
       <c r="K609" t="n">
-        <v>27.27272727272755</v>
+        <v>28.57142857142867</v>
       </c>
       <c r="L609" t="n">
         <v>1.004999999999998</v>
@@ -31566,7 +31580,7 @@
         <v>4.529999999999977</v>
       </c>
       <c r="K610" t="n">
-        <v>14.28571428571442</v>
+        <v>28.57142857142867</v>
       </c>
       <c r="L610" t="n">
         <v>1.007999999999998</v>
@@ -31617,7 +31631,7 @@
         <v>4.539999999999977</v>
       </c>
       <c r="K611" t="n">
-        <v>23.80952380952404</v>
+        <v>33.33333333333348</v>
       </c>
       <c r="L611" t="n">
         <v>1.012999999999998</v>
@@ -31668,7 +31682,7 @@
         <v>4.549999999999977</v>
       </c>
       <c r="K612" t="n">
-        <v>14.28571428571442</v>
+        <v>20.00000000000009</v>
       </c>
       <c r="L612" t="n">
         <v>1.016999999999998</v>
@@ -31719,7 +31733,7 @@
         <v>4.549999999999977</v>
       </c>
       <c r="K613" t="n">
-        <v>14.28571428571442</v>
+        <v>20.00000000000009</v>
       </c>
       <c r="L613" t="n">
         <v>1.019999999999998</v>
@@ -31770,7 +31784,7 @@
         <v>4.559999999999977</v>
       </c>
       <c r="K614" t="n">
-        <v>9.090909090909182</v>
+        <v>6.666666666666695</v>
       </c>
       <c r="L614" t="n">
         <v>1.021999999999998</v>
@@ -31821,7 +31835,7 @@
         <v>4.569999999999976</v>
       </c>
       <c r="K615" t="n">
-        <v>13.0434782608697</v>
+        <v>-16.66666666666679</v>
       </c>
       <c r="L615" t="n">
         <v>1.023999999999998</v>
@@ -31872,7 +31886,7 @@
         <v>4.579999999999976</v>
       </c>
       <c r="K616" t="n">
-        <v>8.333333333333426</v>
+        <v>0</v>
       </c>
       <c r="L616" t="n">
         <v>1.020999999999998</v>
@@ -31923,7 +31937,7 @@
         <v>4.609999999999976</v>
       </c>
       <c r="K617" t="n">
-        <v>0</v>
+        <v>-60.0000000000008</v>
       </c>
       <c r="L617" t="n">
         <v>1.017999999999998</v>
@@ -31974,7 +31988,7 @@
         <v>4.619999999999976</v>
       </c>
       <c r="K618" t="n">
-        <v>0</v>
+        <v>-40.00000000000053</v>
       </c>
       <c r="L618" t="n">
         <v>1.012999999999998</v>
@@ -32025,7 +32039,7 @@
         <v>4.619999999999976</v>
       </c>
       <c r="K619" t="n">
-        <v>4.000000000000032</v>
+        <v>-33.33333333333374</v>
       </c>
       <c r="L619" t="n">
         <v>1.008999999999998</v>
@@ -32076,7 +32090,7 @@
         <v>4.629999999999976</v>
       </c>
       <c r="K620" t="n">
-        <v>4.000000000000032</v>
+        <v>-33.33333333333374</v>
       </c>
       <c r="L620" t="n">
         <v>1.006999999999998</v>
@@ -32127,7 +32141,7 @@
         <v>4.629999999999976</v>
       </c>
       <c r="K621" t="n">
-        <v>8.333333333333396</v>
+        <v>-25.00000000000028</v>
       </c>
       <c r="L621" t="n">
         <v>1.003999999999998</v>
@@ -32178,7 +32192,7 @@
         <v>4.639999999999976</v>
       </c>
       <c r="K622" t="n">
-        <v>12.0000000000001</v>
+        <v>-11.11111111111125</v>
       </c>
       <c r="L622" t="n">
         <v>1.002999999999998</v>
@@ -32229,7 +32243,7 @@
         <v>4.649999999999975</v>
       </c>
       <c r="K623" t="n">
-        <v>4.000000000000032</v>
+        <v>-11.11111111111125</v>
       </c>
       <c r="L623" t="n">
         <v>1.000999999999998</v>
@@ -32280,7 +32294,7 @@
         <v>4.649999999999975</v>
       </c>
       <c r="K624" t="n">
-        <v>4.000000000000032</v>
+        <v>-25.00000000000028</v>
       </c>
       <c r="L624" t="n">
         <v>0.9999999999999984</v>
@@ -32331,7 +32345,7 @@
         <v>4.659999999999975</v>
       </c>
       <c r="K625" t="n">
-        <v>4.000000000000032</v>
+        <v>0</v>
       </c>
       <c r="L625" t="n">
         <v>0.9989999999999984</v>
@@ -32382,7 +32396,7 @@
         <v>4.679999999999975</v>
       </c>
       <c r="K626" t="n">
-        <v>-21.73913043478284</v>
+        <v>14.2857142857146</v>
       </c>
       <c r="L626" t="n">
         <v>0.9969999999999984</v>
@@ -32433,7 +32447,7 @@
         <v>4.689999999999975</v>
       </c>
       <c r="K627" t="n">
-        <v>-4.761904761904828</v>
+        <v>14.2857142857146</v>
       </c>
       <c r="L627" t="n">
         <v>0.9989999999999984</v>
@@ -32484,7 +32498,7 @@
         <v>4.699999999999974</v>
       </c>
       <c r="K628" t="n">
-        <v>-26.31578947368467</v>
+        <v>0</v>
       </c>
       <c r="L628" t="n">
         <v>0.9989999999999984</v>
@@ -32535,7 +32549,7 @@
         <v>4.699999999999974</v>
       </c>
       <c r="K629" t="n">
-        <v>-22.22222222222261</v>
+        <v>-14.2857142857146</v>
       </c>
       <c r="L629" t="n">
         <v>0.9989999999999984</v>
@@ -32586,7 +32600,7 @@
         <v>4.709999999999974</v>
       </c>
       <c r="K630" t="n">
-        <v>-22.22222222222261</v>
+        <v>-25.00000000000055</v>
       </c>
       <c r="L630" t="n">
         <v>0.9969999999999984</v>
@@ -32637,7 +32651,7 @@
         <v>4.729999999999974</v>
       </c>
       <c r="K631" t="n">
-        <v>-15.7894736842108</v>
+        <v>-11.11111111111136</v>
       </c>
       <c r="L631" t="n">
         <v>0.9969999999999984</v>
@@ -32688,7 +32702,7 @@
         <v>4.739999999999974</v>
       </c>
       <c r="K632" t="n">
-        <v>-15.7894736842108</v>
+        <v>-11.11111111111136</v>
       </c>
       <c r="L632" t="n">
         <v>0.9949999999999986</v>
@@ -32739,7 +32753,7 @@
         <v>4.749999999999973</v>
       </c>
       <c r="K633" t="n">
-        <v>-20.00000000000036</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L633" t="n">
         <v>0.9929999999999986</v>
@@ -32790,7 +32804,7 @@
         <v>4.749999999999973</v>
       </c>
       <c r="K634" t="n">
-        <v>-15.7894736842108</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L634" t="n">
         <v>0.9909999999999985</v>
@@ -32841,7 +32855,7 @@
         <v>4.759999999999973</v>
       </c>
       <c r="K635" t="n">
-        <v>-15.7894736842108</v>
+        <v>0</v>
       </c>
       <c r="L635" t="n">
         <v>0.9889999999999987</v>
@@ -32892,7 +32906,7 @@
         <v>4.769999999999973</v>
       </c>
       <c r="K636" t="n">
-        <v>-15.7894736842108</v>
+        <v>-25.00000000000055</v>
       </c>
       <c r="L636" t="n">
         <v>0.9879999999999987</v>
@@ -32943,7 +32957,7 @@
         <v>4.779999999999973</v>
       </c>
       <c r="K637" t="n">
-        <v>-5.882352941176601</v>
+        <v>-25.00000000000055</v>
       </c>
       <c r="L637" t="n">
         <v>0.9849999999999988</v>
@@ -32994,7 +33008,7 @@
         <v>4.789999999999973</v>
       </c>
       <c r="K638" t="n">
-        <v>-5.882352941176601</v>
+        <v>-11.11111111111136</v>
       </c>
       <c r="L638" t="n">
         <v>0.9839999999999988</v>
@@ -33045,7 +33059,7 @@
         <v>4.789999999999973</v>
       </c>
       <c r="K639" t="n">
-        <v>-5.882352941176601</v>
+        <v>0</v>
       </c>
       <c r="L639" t="n">
         <v>0.9829999999999988</v>
@@ -33096,7 +33110,7 @@
         <v>4.799999999999972</v>
       </c>
       <c r="K640" t="n">
-        <v>-5.882352941176601</v>
+        <v>-14.2857142857146</v>
       </c>
       <c r="L640" t="n">
         <v>0.9839999999999988</v>
@@ -33147,7 +33161,7 @@
         <v>4.809999999999972</v>
       </c>
       <c r="K641" t="n">
-        <v>-11.11111111111136</v>
+        <v>-14.2857142857146</v>
       </c>
       <c r="L641" t="n">
         <v>0.9819999999999988</v>
@@ -33198,7 +33212,7 @@
         <v>4.819999999999972</v>
       </c>
       <c r="K642" t="n">
-        <v>-11.11111111111136</v>
+        <v>14.2857142857146</v>
       </c>
       <c r="L642" t="n">
         <v>0.9819999999999988</v>
@@ -33249,7 +33263,7 @@
         <v>4.829999999999972</v>
       </c>
       <c r="K643" t="n">
-        <v>-11.11111111111136</v>
+        <v>0</v>
       </c>
       <c r="L643" t="n">
         <v>0.9819999999999988</v>
@@ -33300,7 +33314,7 @@
         <v>4.829999999999972</v>
       </c>
       <c r="K644" t="n">
-        <v>-11.11111111111136</v>
+        <v>-14.2857142857146</v>
       </c>
       <c r="L644" t="n">
         <v>0.9819999999999988</v>
@@ -33351,7 +33365,7 @@
         <v>4.829999999999972</v>
       </c>
       <c r="K645" t="n">
-        <v>-17.6470588235298</v>
+        <v>0</v>
       </c>
       <c r="L645" t="n">
         <v>0.9809999999999988</v>
@@ -33402,7 +33416,7 @@
         <v>4.829999999999972</v>
       </c>
       <c r="K646" t="n">
-        <v>-6.666666666666815</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L646" t="n">
         <v>0.9809999999999988</v>
@@ -33453,7 +33467,7 @@
         <v>4.839999999999971</v>
       </c>
       <c r="K647" t="n">
-        <v>-6.666666666666815</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L647" t="n">
         <v>0.9829999999999988</v>
@@ -33504,7 +33518,7 @@
         <v>4.849999999999971</v>
       </c>
       <c r="K648" t="n">
-        <v>-6.666666666666815</v>
+        <v>0</v>
       </c>
       <c r="L648" t="n">
         <v>0.9829999999999988</v>
@@ -33555,7 +33569,7 @@
         <v>4.849999999999971</v>
       </c>
       <c r="K649" t="n">
-        <v>-6.666666666666815</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L649" t="n">
         <v>0.9829999999999988</v>
@@ -33657,7 +33671,7 @@
         <v>4.849999999999971</v>
       </c>
       <c r="K651" t="n">
-        <v>-16.66666666666704</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L651" t="n">
         <v>0.9819999999999988</v>
@@ -33708,7 +33722,7 @@
         <v>4.849999999999971</v>
       </c>
       <c r="K652" t="n">
-        <v>-9.090909090909292</v>
+        <v>0</v>
       </c>
       <c r="L652" t="n">
         <v>0.9809999999999988</v>
@@ -33810,7 +33824,7 @@
         <v>4.859999999999971</v>
       </c>
       <c r="K654" t="n">
-        <v>9.090909090909292</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L654" t="n">
         <v>0.9819999999999988</v>
@@ -33861,7 +33875,7 @@
         <v>4.869999999999971</v>
       </c>
       <c r="K655" t="n">
-        <v>9.090909090909292</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L655" t="n">
         <v>0.9839999999999988</v>
@@ -33912,7 +33926,7 @@
         <v>4.869999999999971</v>
       </c>
       <c r="K656" t="n">
-        <v>20.00000000000044</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L656" t="n">
         <v>0.9859999999999987</v>
@@ -33963,7 +33977,7 @@
         <v>4.869999999999971</v>
       </c>
       <c r="K657" t="n">
-        <v>33.33333333333407</v>
+        <v>100.0000000000022</v>
       </c>
       <c r="L657" t="n">
         <v>0.9869999999999987</v>
@@ -34014,7 +34028,7 @@
         <v>4.869999999999971</v>
       </c>
       <c r="K658" t="n">
-        <v>25.00000000000055</v>
+        <v>100.0000000000022</v>
       </c>
       <c r="L658" t="n">
         <v>0.9889999999999987</v>
@@ -34065,7 +34079,7 @@
         <v>4.899999999999971</v>
       </c>
       <c r="K659" t="n">
-        <v>-9.09090909090922</v>
+        <v>-20.00000000000009</v>
       </c>
       <c r="L659" t="n">
         <v>0.9879999999999987</v>
@@ -34116,7 +34130,7 @@
         <v>4.909999999999971</v>
       </c>
       <c r="K660" t="n">
-        <v>-9.09090909090922</v>
+        <v>0</v>
       </c>
       <c r="L660" t="n">
         <v>0.9879999999999987</v>
@@ -34167,7 +34181,7 @@
         <v>4.919999999999971</v>
       </c>
       <c r="K661" t="n">
-        <v>9.09090909090922</v>
+        <v>14.28571428571442</v>
       </c>
       <c r="L661" t="n">
         <v>0.9889999999999987</v>
@@ -34218,7 +34232,7 @@
         <v>4.919999999999971</v>
       </c>
       <c r="K662" t="n">
-        <v>0</v>
+        <v>14.28571428571442</v>
       </c>
       <c r="L662" t="n">
         <v>0.9899999999999987</v>
@@ -34269,7 +34283,7 @@
         <v>4.92999999999997</v>
       </c>
       <c r="K663" t="n">
-        <v>20.00000000000027</v>
+        <v>14.28571428571442</v>
       </c>
       <c r="L663" t="n">
         <v>0.9919999999999985</v>
@@ -34320,7 +34334,7 @@
         <v>4.93999999999997</v>
       </c>
       <c r="K664" t="n">
-        <v>9.09090909090922</v>
+        <v>-14.28571428571442</v>
       </c>
       <c r="L664" t="n">
         <v>0.9919999999999985</v>
@@ -34371,7 +34385,7 @@
         <v>4.94999999999997</v>
       </c>
       <c r="K665" t="n">
-        <v>0</v>
+        <v>-25.00000000000028</v>
       </c>
       <c r="L665" t="n">
         <v>0.9899999999999987</v>
@@ -34422,7 +34436,7 @@
         <v>4.96999999999997</v>
       </c>
       <c r="K666" t="n">
-        <v>-14.28571428571442</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L666" t="n">
         <v>0.9859999999999985</v>
@@ -34473,7 +34487,7 @@
         <v>4.96999999999997</v>
       </c>
       <c r="K667" t="n">
-        <v>-23.07692307692328</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L667" t="n">
         <v>0.9819999999999987</v>
@@ -34524,7 +34538,7 @@
         <v>4.97999999999997</v>
       </c>
       <c r="K668" t="n">
-        <v>-7.692307692307758</v>
+        <v>0</v>
       </c>
       <c r="L668" t="n">
         <v>0.9789999999999986</v>
@@ -34626,7 +34640,7 @@
         <v>4.98999999999997</v>
       </c>
       <c r="K670" t="n">
-        <v>0</v>
+        <v>-14.28571428571442</v>
       </c>
       <c r="L670" t="n">
         <v>0.9799999999999986</v>
@@ -34677,7 +34691,7 @@
         <v>4.98999999999997</v>
       </c>
       <c r="K671" t="n">
-        <v>0</v>
+        <v>-14.28571428571442</v>
       </c>
       <c r="L671" t="n">
         <v>0.9789999999999986</v>
@@ -34728,7 +34742,7 @@
         <v>4.98999999999997</v>
       </c>
       <c r="K672" t="n">
-        <v>0</v>
+        <v>-33.33333333333358</v>
       </c>
       <c r="L672" t="n">
         <v>0.9779999999999986</v>
@@ -34779,7 +34793,7 @@
         <v>4.99999999999997</v>
       </c>
       <c r="K673" t="n">
-        <v>-6.666666666666736</v>
+        <v>-33.33333333333358</v>
       </c>
       <c r="L673" t="n">
         <v>0.9749999999999988</v>
@@ -34830,7 +34844,7 @@
         <v>4.99999999999997</v>
       </c>
       <c r="K674" t="n">
-        <v>-14.28571428571442</v>
+        <v>-20.00000000000009</v>
       </c>
       <c r="L674" t="n">
         <v>0.9729999999999988</v>
@@ -34881,7 +34895,7 @@
         <v>4.99999999999997</v>
       </c>
       <c r="K675" t="n">
-        <v>-23.07692307692328</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L675" t="n">
         <v>0.9719999999999989</v>
@@ -34932,7 +34946,7 @@
         <v>4.99999999999997</v>
       </c>
       <c r="K676" t="n">
-        <v>-23.07692307692328</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L676" t="n">
         <v>0.972999999999999</v>
@@ -34983,7 +34997,7 @@
         <v>5.00999999999997</v>
       </c>
       <c r="K677" t="n">
-        <v>-14.28571428571442</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L677" t="n">
         <v>0.974999999999999</v>
@@ -35034,7 +35048,7 @@
         <v>5.00999999999997</v>
       </c>
       <c r="K678" t="n">
-        <v>-14.28571428571442</v>
+        <v>0</v>
       </c>
       <c r="L678" t="n">
         <v>0.9759999999999989</v>
@@ -35085,7 +35099,7 @@
         <v>5.00999999999997</v>
       </c>
       <c r="K679" t="n">
-        <v>9.09090909090922</v>
+        <v>0</v>
       </c>
       <c r="L679" t="n">
         <v>0.9759999999999989</v>
@@ -35136,7 +35150,7 @@
         <v>5.019999999999969</v>
       </c>
       <c r="K680" t="n">
-        <v>-9.09090909090922</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L680" t="n">
         <v>0.974999999999999</v>
@@ -35187,7 +35201,7 @@
         <v>5.029999999999969</v>
       </c>
       <c r="K681" t="n">
-        <v>-9.09090909090922</v>
+        <v>0</v>
       </c>
       <c r="L681" t="n">
         <v>0.974999999999999</v>
@@ -35238,7 +35252,7 @@
         <v>5.029999999999969</v>
       </c>
       <c r="K682" t="n">
-        <v>-9.09090909090922</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L682" t="n">
         <v>0.974999999999999</v>
@@ -35289,7 +35303,7 @@
         <v>5.029999999999969</v>
       </c>
       <c r="K683" t="n">
-        <v>-20.00000000000027</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L683" t="n">
         <v>0.9759999999999989</v>
@@ -35340,7 +35354,7 @@
         <v>5.029999999999969</v>
       </c>
       <c r="K684" t="n">
-        <v>-11.11111111111125</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L684" t="n">
         <v>0.9769999999999989</v>
@@ -35391,7 +35405,7 @@
         <v>5.029999999999969</v>
       </c>
       <c r="K685" t="n">
-        <v>0</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L685" t="n">
         <v>0.9779999999999989</v>
@@ -35442,7 +35456,7 @@
         <v>5.039999999999969</v>
       </c>
       <c r="K686" t="n">
-        <v>42.85714285714381</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L686" t="n">
         <v>0.9799999999999989</v>
@@ -35493,7 +35507,7 @@
         <v>5.049999999999969</v>
       </c>
       <c r="K687" t="n">
-        <v>25.00000000000055</v>
+        <v>0</v>
       </c>
       <c r="L687" t="n">
         <v>0.9799999999999989</v>
@@ -35544,7 +35558,7 @@
         <v>5.049999999999969</v>
       </c>
       <c r="K688" t="n">
-        <v>14.2857142857146</v>
+        <v>0</v>
       </c>
       <c r="L688" t="n">
         <v>0.9799999999999989</v>
@@ -35595,7 +35609,7 @@
         <v>5.049999999999969</v>
       </c>
       <c r="K689" t="n">
-        <v>0</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L689" t="n">
         <v>0.9799999999999989</v>
@@ -35748,7 +35762,7 @@
         <v>5.059999999999969</v>
       </c>
       <c r="K692" t="n">
-        <v>14.2857142857146</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L692" t="n">
         <v>0.9819999999999988</v>
@@ -35850,7 +35864,7 @@
         <v>5.079999999999968</v>
       </c>
       <c r="K694" t="n">
-        <v>0</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L694" t="n">
         <v>0.9819999999999988</v>
@@ -35901,7 +35915,7 @@
         <v>5.099999999999968</v>
       </c>
       <c r="K695" t="n">
-        <v>20.00000000000044</v>
+        <v>0</v>
       </c>
       <c r="L695" t="n">
         <v>0.9829999999999988</v>
@@ -36003,7 +36017,7 @@
         <v>5.099999999999968</v>
       </c>
       <c r="K697" t="n">
-        <v>11.11111111111136</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L697" t="n">
         <v>0.9839999999999988</v>
@@ -36054,7 +36068,7 @@
         <v>5.099999999999968</v>
       </c>
       <c r="K698" t="n">
-        <v>11.11111111111136</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L698" t="n">
         <v>0.9849999999999988</v>
@@ -36156,7 +36170,7 @@
         <v>5.109999999999967</v>
       </c>
       <c r="K700" t="n">
-        <v>11.11111111111136</v>
+        <v>0</v>
       </c>
       <c r="L700" t="n">
         <v>0.9849999999999988</v>
@@ -36207,7 +36221,7 @@
         <v>5.119999999999967</v>
       </c>
       <c r="K701" t="n">
-        <v>11.11111111111136</v>
+        <v>0</v>
       </c>
       <c r="L701" t="n">
         <v>0.9859999999999987</v>
@@ -36258,7 +36272,7 @@
         <v>5.129999999999967</v>
       </c>
       <c r="K702" t="n">
-        <v>0</v>
+        <v>-14.2857142857146</v>
       </c>
       <c r="L702" t="n">
         <v>0.9849999999999988</v>
@@ -36309,7 +36323,7 @@
         <v>5.129999999999967</v>
       </c>
       <c r="K703" t="n">
-        <v>0</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L703" t="n">
         <v>0.9839999999999988</v>
@@ -36360,7 +36374,7 @@
         <v>5.129999999999967</v>
       </c>
       <c r="K704" t="n">
-        <v>0</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L704" t="n">
         <v>0.9849999999999988</v>
@@ -36411,7 +36425,7 @@
         <v>5.129999999999967</v>
       </c>
       <c r="K705" t="n">
-        <v>0</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L705" t="n">
         <v>0.9839999999999988</v>
@@ -36462,7 +36476,7 @@
         <v>5.139999999999967</v>
       </c>
       <c r="K706" t="n">
-        <v>-20.00000000000044</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L706" t="n">
         <v>0.9819999999999988</v>
@@ -36513,7 +36527,7 @@
         <v>5.149999999999967</v>
       </c>
       <c r="K707" t="n">
-        <v>0</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L707" t="n">
         <v>0.9809999999999988</v>
@@ -36666,7 +36680,7 @@
         <v>5.149999999999967</v>
       </c>
       <c r="K710" t="n">
-        <v>0</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L710" t="n">
         <v>0.9799999999999989</v>
@@ -36768,7 +36782,7 @@
         <v>5.149999999999967</v>
       </c>
       <c r="K712" t="n">
-        <v>-11.11111111111136</v>
+        <v>0</v>
       </c>
       <c r="L712" t="n">
         <v>0.9789999999999989</v>
@@ -36819,7 +36833,7 @@
         <v>5.149999999999967</v>
       </c>
       <c r="K713" t="n">
-        <v>-11.11111111111136</v>
+        <v>0</v>
       </c>
       <c r="L713" t="n">
         <v>0.9789999999999989</v>
@@ -36870,7 +36884,7 @@
         <v>5.159999999999966</v>
       </c>
       <c r="K714" t="n">
-        <v>25.00000000000055</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L714" t="n">
         <v>0.9799999999999989</v>
@@ -36921,7 +36935,7 @@
         <v>5.159999999999966</v>
       </c>
       <c r="K715" t="n">
-        <v>0</v>
+        <v>100.0000000000022</v>
       </c>
       <c r="L715" t="n">
         <v>0.9809999999999988</v>
@@ -36972,7 +36986,7 @@
         <v>5.159999999999966</v>
       </c>
       <c r="K716" t="n">
-        <v>0</v>
+        <v>100.0000000000022</v>
       </c>
       <c r="L716" t="n">
         <v>0.9829999999999988</v>
@@ -37023,7 +37037,7 @@
         <v>5.159999999999966</v>
       </c>
       <c r="K717" t="n">
-        <v>0</v>
+        <v>100.0000000000022</v>
       </c>
       <c r="L717" t="n">
         <v>0.9839999999999988</v>
@@ -37074,7 +37088,7 @@
         <v>5.169999999999966</v>
       </c>
       <c r="K718" t="n">
-        <v>14.2857142857146</v>
+        <v>100.0000000000022</v>
       </c>
       <c r="L718" t="n">
         <v>0.9859999999999987</v>
@@ -37125,7 +37139,7 @@
         <v>5.179999999999966</v>
       </c>
       <c r="K719" t="n">
-        <v>14.2857142857146</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L719" t="n">
         <v>0.9869999999999987</v>
@@ -37176,7 +37190,7 @@
         <v>5.189999999999966</v>
       </c>
       <c r="K720" t="n">
-        <v>25.00000000000055</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L720" t="n">
         <v>0.9889999999999987</v>
@@ -37227,7 +37241,7 @@
         <v>5.199999999999966</v>
       </c>
       <c r="K721" t="n">
-        <v>0</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L721" t="n">
         <v>0.9899999999999987</v>
@@ -37278,7 +37292,7 @@
         <v>5.209999999999965</v>
       </c>
       <c r="K722" t="n">
-        <v>25.00000000000055</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L722" t="n">
         <v>0.9919999999999985</v>
@@ -37329,7 +37343,7 @@
         <v>5.219999999999965</v>
       </c>
       <c r="K723" t="n">
-        <v>11.11111111111136</v>
+        <v>0</v>
       </c>
       <c r="L723" t="n">
         <v>0.9929999999999986</v>
@@ -37380,7 +37394,7 @@
         <v>5.229999999999965</v>
       </c>
       <c r="K724" t="n">
-        <v>20.00000000000044</v>
+        <v>14.2857142857146</v>
       </c>
       <c r="L724" t="n">
         <v>0.9939999999999986</v>
@@ -37431,7 +37445,7 @@
         <v>5.229999999999965</v>
       </c>
       <c r="K725" t="n">
-        <v>20.00000000000044</v>
+        <v>14.2857142857146</v>
       </c>
       <c r="L725" t="n">
         <v>0.9949999999999986</v>
@@ -37482,7 +37496,7 @@
         <v>5.229999999999965</v>
       </c>
       <c r="K726" t="n">
-        <v>33.33333333333407</v>
+        <v>14.2857142857146</v>
       </c>
       <c r="L726" t="n">
         <v>0.9959999999999984</v>
@@ -37533,7 +37547,7 @@
         <v>5.229999999999965</v>
       </c>
       <c r="K727" t="n">
-        <v>25.00000000000055</v>
+        <v>0</v>
       </c>
       <c r="L727" t="n">
         <v>0.9969999999999984</v>
@@ -37584,7 +37598,7 @@
         <v>5.239999999999965</v>
       </c>
       <c r="K728" t="n">
-        <v>11.11111111111136</v>
+        <v>0</v>
       </c>
       <c r="L728" t="n">
         <v>0.9959999999999984</v>
@@ -37635,7 +37649,7 @@
         <v>5.239999999999965</v>
       </c>
       <c r="K729" t="n">
-        <v>11.11111111111136</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L729" t="n">
         <v>0.9959999999999984</v>
@@ -37686,7 +37700,7 @@
         <v>5.249999999999964</v>
       </c>
       <c r="K730" t="n">
-        <v>0</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L730" t="n">
         <v>0.9939999999999986</v>
@@ -37737,7 +37751,7 @@
         <v>5.259999999999964</v>
       </c>
       <c r="K731" t="n">
-        <v>9.090909090909292</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L731" t="n">
         <v>0.9939999999999986</v>
@@ -37788,7 +37802,7 @@
         <v>5.269999999999964</v>
       </c>
       <c r="K732" t="n">
-        <v>0</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L732" t="n">
         <v>0.9919999999999985</v>
@@ -37839,7 +37853,7 @@
         <v>5.269999999999964</v>
       </c>
       <c r="K733" t="n">
-        <v>0</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L733" t="n">
         <v>0.9909999999999985</v>
@@ -37890,7 +37904,7 @@
         <v>5.269999999999964</v>
       </c>
       <c r="K734" t="n">
-        <v>-9.090909090909292</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L734" t="n">
         <v>0.9889999999999987</v>
@@ -37941,7 +37955,7 @@
         <v>5.279999999999964</v>
       </c>
       <c r="K735" t="n">
-        <v>-16.66666666666704</v>
+        <v>-60.00000000000133</v>
       </c>
       <c r="L735" t="n">
         <v>0.9859999999999987</v>
@@ -37992,7 +38006,7 @@
         <v>5.279999999999964</v>
       </c>
       <c r="K736" t="n">
-        <v>-16.66666666666704</v>
+        <v>-60.00000000000133</v>
       </c>
       <c r="L736" t="n">
         <v>0.9829999999999988</v>
@@ -38043,7 +38057,7 @@
         <v>5.289999999999964</v>
       </c>
       <c r="K737" t="n">
-        <v>-7.692307692307863</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L737" t="n">
         <v>0.9809999999999988</v>
@@ -38094,7 +38108,7 @@
         <v>5.289999999999964</v>
       </c>
       <c r="K738" t="n">
-        <v>-16.66666666666704</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L738" t="n">
         <v>0.9799999999999989</v>
@@ -38145,7 +38159,7 @@
         <v>5.299999999999963</v>
       </c>
       <c r="K739" t="n">
-        <v>-16.66666666666704</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L739" t="n">
         <v>0.9779999999999989</v>
@@ -38196,7 +38210,7 @@
         <v>5.299999999999963</v>
       </c>
       <c r="K740" t="n">
-        <v>-27.27272727272788</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L740" t="n">
         <v>0.9769999999999989</v>
@@ -38247,7 +38261,7 @@
         <v>5.299999999999963</v>
       </c>
       <c r="K741" t="n">
-        <v>-20.00000000000044</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L741" t="n">
         <v>0.974999999999999</v>
@@ -38349,7 +38363,7 @@
         <v>5.309999999999963</v>
       </c>
       <c r="K743" t="n">
-        <v>-33.33333333333407</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L743" t="n">
         <v>0.9719999999999989</v>
@@ -38400,7 +38414,7 @@
         <v>5.329999999999963</v>
       </c>
       <c r="K744" t="n">
-        <v>-20.00000000000044</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L744" t="n">
         <v>0.9719999999999989</v>
@@ -38451,7 +38465,7 @@
         <v>5.329999999999963</v>
       </c>
       <c r="K745" t="n">
-        <v>-20.00000000000044</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L745" t="n">
         <v>0.9729999999999988</v>
@@ -38502,7 +38516,7 @@
         <v>5.329999999999963</v>
       </c>
       <c r="K746" t="n">
-        <v>-20.00000000000044</v>
+        <v>0</v>
       </c>
       <c r="L746" t="n">
         <v>0.9739999999999988</v>
@@ -38553,7 +38567,7 @@
         <v>5.339999999999963</v>
       </c>
       <c r="K747" t="n">
-        <v>-9.090909090909292</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L747" t="n">
         <v>0.9749999999999988</v>
@@ -38604,7 +38618,7 @@
         <v>5.339999999999963</v>
       </c>
       <c r="K748" t="n">
-        <v>0</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L748" t="n">
         <v>0.9759999999999988</v>
@@ -38655,7 +38669,7 @@
         <v>5.349999999999962</v>
       </c>
       <c r="K749" t="n">
-        <v>9.090909090909292</v>
+        <v>60.00000000000133</v>
       </c>
       <c r="L749" t="n">
         <v>0.9789999999999986</v>
@@ -38706,7 +38720,7 @@
         <v>5.349999999999962</v>
       </c>
       <c r="K750" t="n">
-        <v>20.00000000000044</v>
+        <v>60.00000000000133</v>
       </c>
       <c r="L750" t="n">
         <v>0.9819999999999987</v>
@@ -38757,7 +38771,7 @@
         <v>5.349999999999962</v>
       </c>
       <c r="K751" t="n">
-        <v>11.11111111111136</v>
+        <v>60.00000000000133</v>
       </c>
       <c r="L751" t="n">
         <v>0.9849999999999985</v>
@@ -38808,7 +38822,7 @@
         <v>5.349999999999962</v>
       </c>
       <c r="K752" t="n">
-        <v>25.00000000000055</v>
+        <v>100.0000000000022</v>
       </c>
       <c r="L752" t="n">
         <v>0.9879999999999984</v>
@@ -38859,7 +38873,7 @@
         <v>5.359999999999962</v>
       </c>
       <c r="K753" t="n">
-        <v>11.11111111111136</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L753" t="n">
         <v>0.9909999999999985</v>
@@ -38961,7 +38975,7 @@
         <v>5.379999999999962</v>
       </c>
       <c r="K755" t="n">
-        <v>0</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L755" t="n">
         <v>0.9899999999999987</v>
@@ -39012,7 +39026,7 @@
         <v>5.379999999999962</v>
       </c>
       <c r="K756" t="n">
-        <v>0</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L756" t="n">
         <v>0.9889999999999987</v>
@@ -39063,7 +39077,7 @@
         <v>5.389999999999961</v>
       </c>
       <c r="K757" t="n">
-        <v>0</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L757" t="n">
         <v>0.9879999999999987</v>
@@ -39114,7 +39128,7 @@
         <v>5.399999999999961</v>
       </c>
       <c r="K758" t="n">
-        <v>-9.090909090909292</v>
+        <v>-60.00000000000133</v>
       </c>
       <c r="L758" t="n">
         <v>0.9859999999999987</v>
@@ -39165,7 +39179,7 @@
         <v>5.409999999999961</v>
       </c>
       <c r="K759" t="n">
-        <v>9.090909090909292</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L759" t="n">
         <v>0.9839999999999988</v>
@@ -39216,7 +39230,7 @@
         <v>5.419999999999961</v>
       </c>
       <c r="K760" t="n">
-        <v>0</v>
+        <v>-42.85714285714381</v>
       </c>
       <c r="L760" t="n">
         <v>0.9809999999999988</v>
@@ -39267,7 +39281,7 @@
         <v>5.429999999999961</v>
       </c>
       <c r="K761" t="n">
-        <v>7.692307692307863</v>
+        <v>-25.00000000000055</v>
       </c>
       <c r="L761" t="n">
         <v>0.9789999999999989</v>
@@ -39318,7 +39332,7 @@
         <v>5.429999999999961</v>
       </c>
       <c r="K762" t="n">
-        <v>7.692307692307863</v>
+        <v>-14.2857142857146</v>
       </c>
       <c r="L762" t="n">
         <v>0.9769999999999989</v>
@@ -39369,7 +39383,7 @@
         <v>5.43999999999996</v>
       </c>
       <c r="K763" t="n">
-        <v>23.07692307692359</v>
+        <v>14.2857142857146</v>
       </c>
       <c r="L763" t="n">
         <v>0.9769999999999989</v>
@@ -39420,7 +39434,7 @@
         <v>5.43999999999996</v>
       </c>
       <c r="K764" t="n">
-        <v>9.090909090909292</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L764" t="n">
         <v>0.9779999999999989</v>
@@ -39471,7 +39485,7 @@
         <v>5.43999999999996</v>
       </c>
       <c r="K765" t="n">
-        <v>9.090909090909292</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L765" t="n">
         <v>0.9799999999999989</v>
@@ -39522,7 +39536,7 @@
         <v>5.43999999999996</v>
       </c>
       <c r="K766" t="n">
-        <v>9.090909090909292</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L766" t="n">
         <v>0.9819999999999988</v>
@@ -39573,7 +39587,7 @@
         <v>5.44999999999996</v>
       </c>
       <c r="K767" t="n">
-        <v>-9.090909090909292</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L767" t="n">
         <v>0.9819999999999988</v>
@@ -39624,7 +39638,7 @@
         <v>5.44999999999996</v>
       </c>
       <c r="K768" t="n">
-        <v>-9.090909090909292</v>
+        <v>0</v>
       </c>
       <c r="L768" t="n">
         <v>0.9829999999999988</v>
@@ -39675,7 +39689,7 @@
         <v>5.44999999999996</v>
       </c>
       <c r="K769" t="n">
-        <v>-20.00000000000044</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L769" t="n">
         <v>0.9829999999999988</v>
@@ -39726,7 +39740,7 @@
         <v>5.45999999999996</v>
       </c>
       <c r="K770" t="n">
-        <v>-27.27272727272788</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L770" t="n">
         <v>0.9829999999999988</v>
@@ -39777,7 +39791,7 @@
         <v>5.45999999999996</v>
       </c>
       <c r="K771" t="n">
-        <v>-27.27272727272788</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L771" t="n">
         <v>0.9819999999999988</v>
@@ -39828,7 +39842,7 @@
         <v>5.45999999999996</v>
       </c>
       <c r="K772" t="n">
-        <v>-27.27272727272788</v>
+        <v>-100.0000000000022</v>
       </c>
       <c r="L772" t="n">
         <v>0.9809999999999988</v>
@@ -39879,7 +39893,7 @@
         <v>5.45999999999996</v>
       </c>
       <c r="K773" t="n">
-        <v>-20.00000000000044</v>
+        <v>-100.0000000000022</v>
       </c>
       <c r="L773" t="n">
         <v>0.9789999999999989</v>
@@ -39930,7 +39944,7 @@
         <v>5.46999999999996</v>
       </c>
       <c r="K774" t="n">
-        <v>0</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L774" t="n">
         <v>0.9779999999999989</v>
@@ -39981,7 +39995,7 @@
         <v>5.46999999999996</v>
       </c>
       <c r="K775" t="n">
-        <v>11.11111111111136</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L775" t="n">
         <v>0.9769999999999989</v>
@@ -40032,7 +40046,7 @@
         <v>5.46999999999996</v>
       </c>
       <c r="K776" t="n">
-        <v>11.11111111111136</v>
+        <v>0</v>
       </c>
       <c r="L776" t="n">
         <v>0.9759999999999989</v>
@@ -40134,7 +40148,7 @@
         <v>5.46999999999996</v>
       </c>
       <c r="K778" t="n">
-        <v>14.2857142857146</v>
+        <v>0</v>
       </c>
       <c r="L778" t="n">
         <v>0.9759999999999989</v>
@@ -40185,7 +40199,7 @@
         <v>5.47999999999996</v>
       </c>
       <c r="K779" t="n">
-        <v>-14.2857142857146</v>
+        <v>0</v>
       </c>
       <c r="L779" t="n">
         <v>0.974999999999999</v>

--- a/BackTest/2019-10-05 BackTest TMTG.xlsx
+++ b/BackTest/2019-10-05 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>377915.7072025789</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>378071.0417025789</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>789475.7849025789</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>2942369.334749131</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>2256237.281849131</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-2767602.556450869</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1805592.185050869</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-4151048.368250869</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-4025449.784250869</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-4025449.784250869</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-4025449.784250869</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>357755.305387062</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-777905.2441129379</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-777905.2441129379</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-781651.106012938</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1851083.241512938</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>715894.7982870622</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1117352.320287062</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1115352.320287062</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>1115362.320287062</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>1115362.320287062</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>1115362.320287062</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1115233.963987062</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1272363.167487062</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>1073100.921487062</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-11575628.90741294</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-11182678.55421294</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-11182825.40961294</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-12542242.48711294</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-10324075.63711294</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-10324075.63711294</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-10530874.25311294</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-10530874.25311294</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-10530874.25311294</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-10530874.25311294</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-10530874.25311294</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-10530874.25311294</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-10820482.90201294</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-18802542.65991294</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-18534931.83271294</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-18534931.83271294</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-23143409.05981294</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-28244261.41081294</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-33072654.50101294</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-33072654.50101294</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-32730624.91661294</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-32730624.91661294</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-32437184.09831294</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-32437184.09831294</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-38311685.38291294</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-38311805.51801294</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-54074120.98550424</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-56749857.73320425</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-56749877.73320425</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-56743251.77170425</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-56743251.77170425</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-56743251.77170425</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-56970522.95410424</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-57118323.63690423</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-56345848.74390423</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -20251,14 +20251,10 @@
         <v>-96190928.38635659</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
-      </c>
-      <c r="I602" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J602" t="n">
-        <v>0.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
@@ -20288,19 +20284,11 @@
         <v>-96190807.58575659</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
-      </c>
-      <c r="I603" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J603" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20329,19 +20317,11 @@
         <v>-96190807.58575659</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
-      </c>
-      <c r="I604" t="n">
-        <v>1</v>
-      </c>
-      <c r="J604" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20799,245 +20779,241 @@
         <v>-102377835.3989566</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
-      </c>
-      <c r="I618" t="n">
-        <v>0.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
+      <c r="K618" t="inlineStr"/>
+      <c r="L618" t="n">
+        <v>1</v>
+      </c>
+      <c r="M618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C619" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D619" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E619" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F619" t="n">
+        <v>53150</v>
+      </c>
+      <c r="G619" t="n">
+        <v>-102377835.3989566</v>
+      </c>
+      <c r="H619" t="n">
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
+      <c r="L619" t="n">
+        <v>1</v>
+      </c>
+      <c r="M619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C620" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D620" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E620" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F620" t="n">
+        <v>6253.0412</v>
+      </c>
+      <c r="G620" t="n">
+        <v>-102371582.3577566</v>
+      </c>
+      <c r="H620" t="n">
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="J620" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K620" t="inlineStr"/>
+      <c r="L620" t="n">
+        <v>1</v>
+      </c>
+      <c r="M620" t="inlineStr"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C621" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D621" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E621" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F621" t="n">
+        <v>21547.1532</v>
+      </c>
+      <c r="G621" t="n">
+        <v>-102350035.2045566</v>
+      </c>
+      <c r="H621" t="n">
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J621" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L621" t="n">
+        <v>1</v>
+      </c>
+      <c r="M621" t="inlineStr"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C622" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D622" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E622" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F622" t="n">
+        <v>526641.8367</v>
+      </c>
+      <c r="G622" t="n">
+        <v>-102350035.2045566</v>
+      </c>
+      <c r="H622" t="n">
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J622" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L622" t="n">
+        <v>1</v>
+      </c>
+      <c r="M622" t="inlineStr"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C623" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D623" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E623" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F623" t="n">
+        <v>113.2476</v>
+      </c>
+      <c r="G623" t="n">
+        <v>-102350148.4521566</v>
+      </c>
+      <c r="H623" t="n">
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J623" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K623" t="inlineStr"/>
+      <c r="L623" t="n">
+        <v>1</v>
+      </c>
+      <c r="M623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C624" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D624" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E624" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F624" t="n">
+        <v>6302616.2899</v>
+      </c>
+      <c r="G624" t="n">
+        <v>-108652764.7420566</v>
+      </c>
+      <c r="H624" t="n">
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J624" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K624" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L618" t="n">
-        <v>1</v>
-      </c>
-      <c r="M618" t="inlineStr"/>
-    </row>
-    <row r="619">
-      <c r="A619" s="1" t="n">
-        <v>617</v>
-      </c>
-      <c r="B619" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C619" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="D619" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="E619" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="F619" t="n">
-        <v>53150</v>
-      </c>
-      <c r="G619" t="n">
-        <v>-102377835.3989566</v>
-      </c>
-      <c r="H619" t="n">
-        <v>2</v>
-      </c>
-      <c r="I619" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L619" t="n">
-        <v>1</v>
-      </c>
-      <c r="M619" t="inlineStr"/>
-    </row>
-    <row r="620">
-      <c r="A620" s="1" t="n">
-        <v>618</v>
-      </c>
-      <c r="B620" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C620" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="D620" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="E620" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="F620" t="n">
-        <v>6253.0412</v>
-      </c>
-      <c r="G620" t="n">
-        <v>-102371582.3577566</v>
-      </c>
-      <c r="H620" t="n">
-        <v>2</v>
-      </c>
-      <c r="I620" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L620" t="n">
-        <v>1</v>
-      </c>
-      <c r="M620" t="inlineStr"/>
-    </row>
-    <row r="621">
-      <c r="A621" s="1" t="n">
-        <v>619</v>
-      </c>
-      <c r="B621" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C621" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="D621" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="E621" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="F621" t="n">
-        <v>21547.1532</v>
-      </c>
-      <c r="G621" t="n">
-        <v>-102350035.2045566</v>
-      </c>
-      <c r="H621" t="n">
-        <v>2</v>
-      </c>
-      <c r="I621" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L621" t="n">
-        <v>1</v>
-      </c>
-      <c r="M621" t="inlineStr"/>
-    </row>
-    <row r="622">
-      <c r="A622" s="1" t="n">
-        <v>620</v>
-      </c>
-      <c r="B622" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C622" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="D622" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="E622" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="F622" t="n">
-        <v>526641.8367</v>
-      </c>
-      <c r="G622" t="n">
-        <v>-102350035.2045566</v>
-      </c>
-      <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L622" t="n">
-        <v>1</v>
-      </c>
-      <c r="M622" t="inlineStr"/>
-    </row>
-    <row r="623">
-      <c r="A623" s="1" t="n">
-        <v>621</v>
-      </c>
-      <c r="B623" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C623" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="D623" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="E623" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="F623" t="n">
-        <v>113.2476</v>
-      </c>
-      <c r="G623" t="n">
-        <v>-102350148.4521566</v>
-      </c>
-      <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L623" t="n">
-        <v>1</v>
-      </c>
-      <c r="M623" t="inlineStr"/>
-    </row>
-    <row r="624">
-      <c r="A624" s="1" t="n">
-        <v>622</v>
-      </c>
-      <c r="B624" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C624" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="D624" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="E624" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F624" t="n">
-        <v>6302616.2899</v>
-      </c>
-      <c r="G624" t="n">
-        <v>-108652764.7420566</v>
-      </c>
-      <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21066,10 +21042,14 @@
         <v>-108652764.7420566</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="J625" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21106,7 +21086,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21140,12 +21122,14 @@
         <v>-108015851.5330566</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I627" t="n">
         <v>0.97</v>
       </c>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21179,12 +21163,14 @@
         <v>-108098491.5330566</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I628" t="n">
         <v>0.97</v>
       </c>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21218,12 +21204,14 @@
         <v>-108098491.5330566</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I629" t="n">
         <v>0.96</v>
       </c>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21257,12 +21245,14 @@
         <v>-108098491.5330566</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I630" t="n">
         <v>0.96</v>
       </c>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21296,12 +21286,14 @@
         <v>-108098491.5330566</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I631" t="n">
         <v>0.96</v>
       </c>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21335,12 +21327,14 @@
         <v>-105848628.6465566</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I632" t="n">
         <v>0.96</v>
       </c>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21374,12 +21368,14 @@
         <v>-101385742.8809566</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I633" t="n">
         <v>0.97</v>
       </c>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21413,12 +21409,14 @@
         <v>-101385742.8809566</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I634" t="n">
         <v>1</v>
       </c>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21452,12 +21450,14 @@
         <v>-103140880.0670566</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I635" t="n">
         <v>1</v>
       </c>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21491,10 +21491,14 @@
         <v>-103140880.0670566</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J636" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21531,7 +21535,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21568,7 +21574,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21605,7 +21613,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21639,10 +21649,14 @@
         <v>-103391278.9419566</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J640" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21676,10 +21690,14 @@
         <v>-103391278.9419566</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J641" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21713,10 +21731,14 @@
         <v>-103391278.9419566</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J642" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21753,7 +21775,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21787,10 +21811,14 @@
         <v>-104509286.3713566</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J644" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21824,10 +21852,14 @@
         <v>-104509286.3713566</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J645" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21861,10 +21893,14 @@
         <v>-104509286.3713566</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J646" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21898,10 +21934,14 @@
         <v>-104509286.3713566</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J647" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21935,10 +21975,14 @@
         <v>-104509286.3713566</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J648" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21972,12 +22016,14 @@
         <v>-100263731.4866566</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I649" t="n">
         <v>0.97</v>
       </c>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22014,7 +22060,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22051,7 +22099,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22088,7 +22138,9 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22125,7 +22177,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22162,7 +22216,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22199,7 +22255,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22236,7 +22294,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22273,7 +22333,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22310,7 +22372,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22347,7 +22411,9 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22384,7 +22450,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22421,7 +22489,9 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22458,7 +22528,9 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22495,7 +22567,9 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22532,7 +22606,9 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22569,7 +22645,9 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22606,7 +22684,9 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22643,7 +22723,9 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22680,7 +22762,9 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22717,7 +22801,9 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22754,7 +22840,9 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22791,7 +22879,9 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22828,7 +22918,9 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22865,7 +22957,9 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22902,7 +22996,9 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22939,7 +23035,9 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22976,7 +23074,9 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23013,7 +23113,9 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23050,7 +23152,9 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23084,10 +23188,14 @@
         <v>-107334630.9904702</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J679" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23124,7 +23232,9 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23161,7 +23271,9 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23198,7 +23310,9 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23235,7 +23349,9 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23272,7 +23388,9 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23309,7 +23427,9 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23346,7 +23466,9 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23383,7 +23505,9 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23420,7 +23544,9 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23457,7 +23583,9 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23491,12 +23619,12 @@
         <v>-109273185.9794702</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
-      </c>
-      <c r="I690" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J690" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23530,12 +23658,12 @@
         <v>-109880004.7604702</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
-      </c>
-      <c r="I691" t="n">
-        <v>1</v>
-      </c>
-      <c r="J691" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23569,12 +23697,12 @@
         <v>-110903802.9505702</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
-      </c>
-      <c r="I692" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J692" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23608,12 +23736,12 @@
         <v>-110903802.9505702</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
-      </c>
-      <c r="I693" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J693" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23647,10 +23775,14 @@
         <v>-110903692.1169702</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J694" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23687,7 +23819,9 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23721,10 +23855,14 @@
         <v>-110907904.9391702</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J696" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23758,10 +23896,14 @@
         <v>-110907762.2536702</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J697" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23795,10 +23937,14 @@
         <v>-110907762.2536702</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J698" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23835,7 +23981,9 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23872,7 +24020,9 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23909,7 +24059,9 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23943,10 +24095,14 @@
         <v>-110965433.5052702</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J702" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23980,10 +24136,14 @@
         <v>-110965433.5052702</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J703" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24017,10 +24177,14 @@
         <v>-110965433.5052702</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J704" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24054,10 +24218,14 @@
         <v>-110965433.5052702</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J705" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24091,10 +24259,14 @@
         <v>-110753376.5786702</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J706" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24128,10 +24300,14 @@
         <v>-111013351.1526702</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J707" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24165,10 +24341,14 @@
         <v>-111013351.1526702</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J708" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24202,10 +24382,14 @@
         <v>-111013351.1526702</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J709" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24239,10 +24423,14 @@
         <v>-111013351.1526702</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J710" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24276,10 +24464,14 @@
         <v>-111013351.1526702</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J711" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24313,10 +24505,14 @@
         <v>-111013351.1526702</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J712" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24350,10 +24546,14 @@
         <v>-110984973.1531702</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J713" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24387,10 +24587,14 @@
         <v>-110581993.9701702</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J714" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24427,7 +24631,9 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24464,7 +24670,9 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24501,7 +24709,9 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24538,7 +24748,9 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24575,7 +24787,9 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24612,7 +24826,9 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24649,7 +24865,9 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24686,7 +24904,9 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24723,7 +24943,9 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24760,7 +24982,9 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24797,7 +25021,9 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24831,12 +25057,12 @@
         <v>-117892280.7676702</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
-      </c>
-      <c r="I726" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="J726" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24870,12 +25096,12 @@
         <v>-117831970.5876702</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
-      </c>
-      <c r="I727" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="J727" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24909,10 +25135,14 @@
         <v>-116851971.1636702</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J728" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24946,12 +25176,14 @@
         <v>-116851971.1636702</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I729" t="n">
         <v>0.98</v>
       </c>
-      <c r="J729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24985,12 +25217,14 @@
         <v>-116851971.1636702</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I730" t="n">
         <v>0.98</v>
       </c>
-      <c r="J730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25024,10 +25258,14 @@
         <v>-116851971.1636702</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J731" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25061,10 +25299,14 @@
         <v>-117454108.9214702</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J732" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25098,10 +25340,14 @@
         <v>-117454108.9214702</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J733" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25135,10 +25381,14 @@
         <v>-117454108.9214702</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J734" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25172,12 +25422,14 @@
         <v>-117454108.9214702</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I735" t="n">
         <v>0.97</v>
       </c>
-      <c r="J735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25211,12 +25463,14 @@
         <v>-116811487.6564702</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I736" t="n">
         <v>0.97</v>
       </c>
-      <c r="J736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25250,12 +25504,14 @@
         <v>-116811487.6564702</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I737" t="n">
         <v>0.98</v>
       </c>
-      <c r="J737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25289,12 +25545,14 @@
         <v>-116811487.6564702</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I738" t="n">
         <v>0.98</v>
       </c>
-      <c r="J738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25328,12 +25586,12 @@
         <v>-116811597.9356702</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
-      </c>
-      <c r="I739" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J739" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25367,12 +25625,12 @@
         <v>-116811493.5362702</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
-      </c>
-      <c r="I740" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J740" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25406,12 +25664,14 @@
         <v>-116811493.5362702</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I741" t="n">
         <v>0.98</v>
       </c>
-      <c r="J741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25445,12 +25705,14 @@
         <v>-116811493.5362702</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I742" t="n">
         <v>0.98</v>
       </c>
-      <c r="J742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25484,12 +25746,14 @@
         <v>-116811493.5362702</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I743" t="n">
         <v>0.98</v>
       </c>
-      <c r="J743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25523,10 +25787,14 @@
         <v>-116811493.5362702</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J744" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25560,12 +25828,14 @@
         <v>-116811477.5362702</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I745" t="n">
         <v>0.98</v>
       </c>
-      <c r="J745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25599,10 +25869,14 @@
         <v>-116811617.5139702</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J746" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25639,7 +25913,9 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25676,7 +25952,9 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25710,12 +25988,14 @@
         <v>-116811617.5139702</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I749" t="n">
         <v>0.98</v>
       </c>
-      <c r="J749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25749,10 +26029,14 @@
         <v>-116811617.5139702</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J750" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25786,10 +26070,14 @@
         <v>-116807117.5139702</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J751" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25823,10 +26111,14 @@
         <v>-116807117.5139702</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J752" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25860,10 +26152,14 @@
         <v>-117042370.5673702</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J753" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25897,10 +26193,14 @@
         <v>-116738276.8103702</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J754" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25934,10 +26234,14 @@
         <v>-116738276.8103702</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J755" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25974,7 +26278,9 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26011,7 +26317,9 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26045,10 +26353,14 @@
         <v>-117168868.6566702</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J758" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26085,7 +26397,9 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26122,7 +26436,9 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26159,7 +26475,9 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26196,7 +26514,9 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26233,7 +26553,9 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26267,12 +26589,12 @@
         <v>-116678268.9896702</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
-      </c>
-      <c r="I764" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J764" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26309,7 +26631,9 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26346,7 +26670,9 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26383,7 +26709,9 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26420,7 +26748,9 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26457,7 +26787,9 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26494,7 +26826,9 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26531,7 +26865,9 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26565,12 +26901,12 @@
         <v>-117175480.8571702</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
-      </c>
-      <c r="I772" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J772" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26607,7 +26943,9 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26644,7 +26982,9 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26681,7 +27021,9 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26718,7 +27060,9 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26755,7 +27099,9 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26792,7 +27138,9 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26829,7 +27177,9 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26866,7 +27216,9 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26903,7 +27255,9 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26940,7 +27294,9 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26977,7 +27333,9 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27014,7 +27372,9 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27048,12 +27408,12 @@
         <v>-116090574.5925702</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
-      </c>
-      <c r="I785" t="n">
-        <v>1</v>
-      </c>
-      <c r="J785" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27090,7 +27450,9 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27124,12 +27486,12 @@
         <v>-116184000.3708702</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
-      </c>
-      <c r="I787" t="n">
-        <v>1</v>
-      </c>
-      <c r="J787" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27163,12 +27525,12 @@
         <v>-116184000.3708702</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
-      </c>
-      <c r="I788" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J788" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27202,12 +27564,14 @@
         <v>-116184132.1139702</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I789" t="n">
         <v>0.99</v>
       </c>
-      <c r="J789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27241,12 +27605,14 @@
         <v>-116183122.0129601</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I790" t="n">
         <v>0.98</v>
       </c>
-      <c r="J790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27280,12 +27646,14 @@
         <v>-116183225.7572601</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I791" t="n">
         <v>0.99</v>
       </c>
-      <c r="J791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27319,12 +27687,14 @@
         <v>-116183225.7572601</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I792" t="n">
         <v>0.98</v>
       </c>
-      <c r="J792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27358,12 +27728,14 @@
         <v>-116183225.7572601</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I793" t="n">
         <v>0.98</v>
       </c>
-      <c r="J793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27397,12 +27769,14 @@
         <v>-118729812.0525601</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I794" t="n">
         <v>0.98</v>
       </c>
-      <c r="J794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27436,12 +27810,14 @@
         <v>-118729812.0525601</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I795" t="n">
         <v>0.97</v>
       </c>
-      <c r="J795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27475,12 +27851,12 @@
         <v>-116954159.7765601</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
-      </c>
-      <c r="I796" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J796" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27514,12 +27890,12 @@
         <v>-116954159.7765601</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
-      </c>
-      <c r="I797" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J797" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27553,12 +27929,12 @@
         <v>-117189232.8086601</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
-      </c>
-      <c r="I798" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J798" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27595,7 +27971,9 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27629,12 +28007,14 @@
         <v>-117189232.8086601</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I800" t="n">
         <v>0.97</v>
       </c>
-      <c r="J800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27668,12 +28048,12 @@
         <v>-117189232.8086601</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
-      </c>
-      <c r="I801" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J801" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27707,10 +28087,14 @@
         <v>-117189360.4067601</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J802" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27744,12 +28128,14 @@
         <v>-117104360.4067601</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I803" t="n">
         <v>0.96</v>
       </c>
-      <c r="J803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27783,12 +28169,14 @@
         <v>-117104360.4067601</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I804" t="n">
         <v>0.98</v>
       </c>
-      <c r="J804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27822,12 +28210,14 @@
         <v>-117104360.4067601</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I805" t="n">
         <v>0.98</v>
       </c>
-      <c r="J805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27861,12 +28251,14 @@
         <v>-116201758.6239601</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I806" t="n">
         <v>0.98</v>
       </c>
-      <c r="J806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27900,12 +28292,14 @@
         <v>-116201758.6239601</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I807" t="n">
         <v>0.99</v>
       </c>
-      <c r="J807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27939,10 +28333,14 @@
         <v>-115618177.1676601</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J808" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27979,7 +28377,9 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28016,7 +28416,9 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28053,7 +28455,9 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28090,7 +28494,9 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28127,7 +28533,9 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28164,7 +28572,9 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28198,10 +28608,14 @@
         <v>-117050832.7695601</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J815" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28235,10 +28649,14 @@
         <v>-117050822.7695601</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J816" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28272,12 +28690,14 @@
         <v>-117050926.2356601</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I817" t="n">
         <v>0.98</v>
       </c>
-      <c r="J817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28311,12 +28731,14 @@
         <v>-116189605.9170601</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I818" t="n">
         <v>0.97</v>
       </c>
-      <c r="J818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28350,12 +28772,14 @@
         <v>-116189766.5145601</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I819" t="n">
         <v>0.98</v>
       </c>
-      <c r="J819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28389,12 +28813,14 @@
         <v>-116189004.2697601</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I820" t="n">
         <v>0.97</v>
       </c>
-      <c r="J820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28428,12 +28854,14 @@
         <v>-116189004.2697601</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I821" t="n">
         <v>0.98</v>
       </c>
-      <c r="J821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28467,10 +28895,14 @@
         <v>-116188853.6792601</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J822" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28504,10 +28936,14 @@
         <v>-116188853.6792601</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J823" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28541,10 +28977,14 @@
         <v>-116188853.6792601</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J824" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28581,7 +29021,9 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28618,7 +29060,9 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28655,7 +29099,9 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28667,6 +29113,6 @@
       <c r="M827" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-05 BackTest TMTG.xlsx
+++ b/BackTest/2019-10-05 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>377915.7072025789</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>378071.0417025789</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-781651.106012938</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>715894.7982870622</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1117352.320287062</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1115352.320287062</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>1115362.320287062</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>1115362.320287062</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>1115362.320287062</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1115233.963987062</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1272363.167487062</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>1073100.921487062</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-11575628.90741294</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-11182678.55421294</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-11182825.40961294</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-12542242.48711294</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-10324075.63711294</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-10324075.63711294</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-10530874.25311294</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-10530874.25311294</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-10530874.25311294</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-10530874.25311294</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-10530874.25311294</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-10530874.25311294</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-10820482.90201294</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-18802542.65991294</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-18534931.83271294</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-18534931.83271294</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-23143409.05981294</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-68934976.55455658</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-69163886.37265658</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-69163745.79765658</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-73063350.97535658</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-73063360.97535658</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-77050307.66005658</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20845,14 +20845,10 @@
         <v>-102371582.3577566</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="J620" t="n">
-        <v>0.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
@@ -20882,19 +20878,11 @@
         <v>-102350035.2045566</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J621" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20923,19 +20911,11 @@
         <v>-102350035.2045566</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J622" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20964,14 +20944,10 @@
         <v>-102350148.4521566</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J623" t="n">
-        <v>0.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
@@ -21001,19 +20977,11 @@
         <v>-108652764.7420566</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
-      </c>
-      <c r="I624" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J624" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21042,19 +21010,11 @@
         <v>-108652764.7420566</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
-      </c>
-      <c r="I625" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="J625" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21086,14 +21046,8 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21122,19 +21076,11 @@
         <v>-108015851.5330566</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
-      </c>
-      <c r="I627" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J627" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21163,19 +21109,11 @@
         <v>-108098491.5330566</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J628" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21204,19 +21142,11 @@
         <v>-108098491.5330566</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="J629" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21245,19 +21175,11 @@
         <v>-108098491.5330566</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="J630" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21286,19 +21208,11 @@
         <v>-108098491.5330566</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
-      </c>
-      <c r="I631" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="J631" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21327,19 +21241,11 @@
         <v>-105848628.6465566</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="J632" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21368,19 +21274,11 @@
         <v>-101385742.8809566</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J633" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21409,19 +21307,11 @@
         <v>-101385742.8809566</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>1</v>
-      </c>
-      <c r="J634" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21450,19 +21340,11 @@
         <v>-103140880.0670566</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>1</v>
-      </c>
-      <c r="J635" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21491,19 +21373,11 @@
         <v>-103140880.0670566</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J636" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21535,14 +21409,8 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21574,14 +21442,8 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21613,14 +21475,8 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21649,19 +21505,11 @@
         <v>-103391278.9419566</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
-      </c>
-      <c r="I640" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J640" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21690,19 +21538,11 @@
         <v>-103391278.9419566</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
-      </c>
-      <c r="I641" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J641" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21731,19 +21571,11 @@
         <v>-103391278.9419566</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
-      </c>
-      <c r="I642" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J642" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21775,14 +21607,8 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21811,19 +21637,11 @@
         <v>-104509286.3713566</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J644" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21852,19 +21670,11 @@
         <v>-104509286.3713566</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
-      </c>
-      <c r="I645" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J645" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21893,19 +21703,11 @@
         <v>-104509286.3713566</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J646" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21934,19 +21736,11 @@
         <v>-104509286.3713566</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
-      </c>
-      <c r="I647" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J647" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21975,19 +21769,11 @@
         <v>-104509286.3713566</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J648" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22016,19 +21802,11 @@
         <v>-100263731.4866566</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J649" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22060,14 +21838,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22099,14 +21871,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22138,14 +21904,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22177,14 +21937,8 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22216,14 +21970,8 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22255,14 +22003,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22294,14 +22036,8 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22333,14 +22069,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22372,14 +22102,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22411,14 +22135,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22450,14 +22168,8 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22489,14 +22201,8 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22528,14 +22234,8 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22567,14 +22267,8 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22606,14 +22300,8 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22645,14 +22333,8 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22684,14 +22366,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22723,14 +22399,8 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22762,14 +22432,8 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22801,14 +22465,8 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22840,14 +22498,8 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22879,14 +22531,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22918,14 +22564,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22957,14 +22597,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22996,14 +22630,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23035,14 +22663,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23074,14 +22696,8 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23113,14 +22729,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23152,14 +22762,8 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23188,19 +22792,11 @@
         <v>-107334630.9904702</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
-      </c>
-      <c r="I679" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J679" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23232,14 +22828,8 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23271,14 +22861,8 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23310,14 +22894,8 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23349,14 +22927,8 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23388,14 +22960,8 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23427,14 +22993,8 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23466,14 +23026,8 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23505,14 +23059,8 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23544,14 +23092,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23583,14 +23125,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23622,14 +23158,8 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23661,14 +23191,8 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23700,14 +23224,8 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23739,14 +23257,8 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23775,19 +23287,11 @@
         <v>-110903692.1169702</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
-      </c>
-      <c r="I694" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J694" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23819,14 +23323,8 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23855,19 +23353,11 @@
         <v>-110907904.9391702</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
-      </c>
-      <c r="I696" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J696" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23896,19 +23386,11 @@
         <v>-110907762.2536702</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J697" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23937,19 +23419,11 @@
         <v>-110907762.2536702</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
-      </c>
-      <c r="I698" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J698" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23981,14 +23455,8 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24020,14 +23488,8 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24059,14 +23521,8 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24095,19 +23551,11 @@
         <v>-110965433.5052702</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
-      </c>
-      <c r="I702" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J702" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24136,19 +23584,11 @@
         <v>-110965433.5052702</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
-      </c>
-      <c r="I703" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J703" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24177,19 +23617,11 @@
         <v>-110965433.5052702</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
-      </c>
-      <c r="I704" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J704" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24218,19 +23650,11 @@
         <v>-110965433.5052702</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
-      </c>
-      <c r="I705" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J705" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I705" t="inlineStr"/>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24259,19 +23683,11 @@
         <v>-110753376.5786702</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
-      </c>
-      <c r="I706" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J706" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24300,19 +23716,11 @@
         <v>-111013351.1526702</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
-      </c>
-      <c r="I707" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J707" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24341,19 +23749,11 @@
         <v>-111013351.1526702</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
-      </c>
-      <c r="I708" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J708" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24382,19 +23782,11 @@
         <v>-111013351.1526702</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
-      </c>
-      <c r="I709" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J709" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24423,19 +23815,11 @@
         <v>-111013351.1526702</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
-      </c>
-      <c r="I710" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J710" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24464,19 +23848,11 @@
         <v>-111013351.1526702</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
-      </c>
-      <c r="I711" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J711" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24505,19 +23881,11 @@
         <v>-111013351.1526702</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
-      </c>
-      <c r="I712" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J712" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24546,19 +23914,11 @@
         <v>-110984973.1531702</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
-      </c>
-      <c r="I713" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J713" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24587,19 +23947,11 @@
         <v>-110581993.9701702</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
-      </c>
-      <c r="I714" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J714" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24631,14 +23983,8 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24670,14 +24016,8 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24709,14 +24049,8 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24748,14 +24082,8 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24787,14 +24115,8 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24826,14 +24148,8 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24865,14 +24181,8 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24904,14 +24214,8 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24943,14 +24247,8 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24982,14 +24280,8 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25021,14 +24313,8 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25060,14 +24346,8 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25099,14 +24379,8 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25135,19 +24409,11 @@
         <v>-116851971.1636702</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
-      </c>
-      <c r="I728" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J728" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25176,19 +24442,11 @@
         <v>-116851971.1636702</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
-      </c>
-      <c r="I729" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J729" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25217,19 +24475,11 @@
         <v>-116851971.1636702</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
-      </c>
-      <c r="I730" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J730" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25258,19 +24508,11 @@
         <v>-116851971.1636702</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
-      </c>
-      <c r="I731" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J731" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25299,19 +24541,11 @@
         <v>-117454108.9214702</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
-      </c>
-      <c r="I732" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J732" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25340,19 +24574,11 @@
         <v>-117454108.9214702</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
-      </c>
-      <c r="I733" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J733" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25381,19 +24607,11 @@
         <v>-117454108.9214702</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
-      </c>
-      <c r="I734" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J734" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25422,19 +24640,11 @@
         <v>-117454108.9214702</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
-      </c>
-      <c r="I735" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J735" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25463,19 +24673,11 @@
         <v>-116811487.6564702</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
-      </c>
-      <c r="I736" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J736" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25504,19 +24706,11 @@
         <v>-116811487.6564702</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
-      </c>
-      <c r="I737" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J737" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25545,19 +24739,11 @@
         <v>-116811487.6564702</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
-      </c>
-      <c r="I738" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J738" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25589,14 +24775,8 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25628,14 +24808,8 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25664,19 +24838,11 @@
         <v>-116811493.5362702</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
-      </c>
-      <c r="I741" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J741" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25705,19 +24871,11 @@
         <v>-116811493.5362702</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
-      </c>
-      <c r="I742" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J742" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25746,19 +24904,11 @@
         <v>-116811493.5362702</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
-      </c>
-      <c r="I743" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J743" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25787,19 +24937,11 @@
         <v>-116811493.5362702</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
-      </c>
-      <c r="I744" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J744" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25828,19 +24970,11 @@
         <v>-116811477.5362702</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
-      </c>
-      <c r="I745" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J745" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25869,19 +25003,11 @@
         <v>-116811617.5139702</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
-      </c>
-      <c r="I746" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J746" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25913,14 +25039,8 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25952,14 +25072,8 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25988,19 +25102,11 @@
         <v>-116811617.5139702</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
-      </c>
-      <c r="I749" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J749" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26029,19 +25135,11 @@
         <v>-116811617.5139702</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
-      </c>
-      <c r="I750" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J750" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26070,19 +25168,11 @@
         <v>-116807117.5139702</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
-      </c>
-      <c r="I751" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J751" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26111,19 +25201,11 @@
         <v>-116807117.5139702</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
-      </c>
-      <c r="I752" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J752" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26152,19 +25234,11 @@
         <v>-117042370.5673702</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
-      </c>
-      <c r="I753" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J753" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26193,19 +25267,11 @@
         <v>-116738276.8103702</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
-      </c>
-      <c r="I754" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J754" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26234,19 +25300,11 @@
         <v>-116738276.8103702</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
-      </c>
-      <c r="I755" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J755" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26278,14 +25336,8 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26317,14 +25369,8 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26353,19 +25399,11 @@
         <v>-117168868.6566702</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
-      </c>
-      <c r="I758" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J758" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26397,14 +25435,8 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26436,14 +25468,8 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26475,14 +25501,8 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26514,14 +25534,8 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26553,14 +25567,8 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26592,14 +25600,8 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26631,14 +25633,8 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26670,14 +25666,8 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26709,14 +25699,8 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26748,14 +25732,8 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26787,14 +25765,8 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26826,14 +25798,8 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26865,14 +25831,8 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26904,14 +25864,8 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26943,14 +25897,8 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26982,14 +25930,8 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27021,14 +25963,8 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27060,14 +25996,8 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27099,14 +26029,8 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27138,14 +26062,8 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27177,14 +26095,8 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27216,14 +26128,8 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27255,14 +26161,8 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27294,14 +26194,8 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27333,14 +26227,8 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27372,14 +26260,8 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27411,14 +26293,8 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27450,14 +26326,8 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27489,14 +26359,8 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27528,14 +26392,8 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27564,19 +26422,11 @@
         <v>-116184132.1139702</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
-      </c>
-      <c r="I789" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J789" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27605,19 +26455,11 @@
         <v>-116183122.0129601</v>
       </c>
       <c r="H790" t="n">
-        <v>1</v>
-      </c>
-      <c r="I790" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J790" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I790" t="inlineStr"/>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27646,19 +26488,11 @@
         <v>-116183225.7572601</v>
       </c>
       <c r="H791" t="n">
-        <v>1</v>
-      </c>
-      <c r="I791" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J791" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I791" t="inlineStr"/>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27687,19 +26521,11 @@
         <v>-116183225.7572601</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
-      </c>
-      <c r="I792" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J792" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I792" t="inlineStr"/>
+      <c r="J792" t="inlineStr"/>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27736,11 +26562,7 @@
       <c r="J793" t="n">
         <v>0.98</v>
       </c>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27779,7 +26601,7 @@
       </c>
       <c r="K794" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L794" t="n">
@@ -27851,9 +26673,11 @@
         <v>-116954159.7765601</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>0.97</v>
+      </c>
       <c r="J796" t="n">
         <v>0.98</v>
       </c>
@@ -27890,9 +26714,11 @@
         <v>-116954159.7765601</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J797" t="n">
         <v>0.98</v>
       </c>
@@ -27929,9 +26755,11 @@
         <v>-117189232.8086601</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J798" t="n">
         <v>0.98</v>
       </c>
@@ -27968,9 +26796,11 @@
         <v>-117189232.8086601</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>0.97</v>
+      </c>
       <c r="J799" t="n">
         <v>0.98</v>
       </c>
@@ -28048,9 +26878,11 @@
         <v>-117189232.8086601</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>0.97</v>
+      </c>
       <c r="J801" t="n">
         <v>0.98</v>
       </c>
@@ -28333,11 +27165,9 @@
         <v>-115618177.1676601</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
-      </c>
-      <c r="I808" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
       <c r="J808" t="n">
         <v>0.98</v>
       </c>
@@ -28608,11 +27438,9 @@
         <v>-117050832.7695601</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
-      </c>
-      <c r="I815" t="n">
-        <v>0.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
       <c r="J815" t="n">
         <v>0.98</v>
       </c>
@@ -28649,11 +27477,9 @@
         <v>-117050822.7695601</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
-      </c>
-      <c r="I816" t="n">
-        <v>0.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I816" t="inlineStr"/>
       <c r="J816" t="n">
         <v>0.98</v>
       </c>
@@ -28690,11 +27516,9 @@
         <v>-117050926.2356601</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
-      </c>
-      <c r="I817" t="n">
-        <v>0.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
       <c r="J817" t="n">
         <v>0.98</v>
       </c>
@@ -28731,11 +27555,9 @@
         <v>-116189605.9170601</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
-      </c>
-      <c r="I818" t="n">
-        <v>0.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
       <c r="J818" t="n">
         <v>0.98</v>
       </c>
@@ -28772,11 +27594,9 @@
         <v>-116189766.5145601</v>
       </c>
       <c r="H819" t="n">
-        <v>1</v>
-      </c>
-      <c r="I819" t="n">
-        <v>0.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I819" t="inlineStr"/>
       <c r="J819" t="n">
         <v>0.98</v>
       </c>
@@ -28813,11 +27633,9 @@
         <v>-116189004.2697601</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
-      </c>
-      <c r="I820" t="n">
-        <v>0.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I820" t="inlineStr"/>
       <c r="J820" t="n">
         <v>0.98</v>
       </c>
@@ -28854,11 +27672,9 @@
         <v>-116189004.2697601</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
-      </c>
-      <c r="I821" t="n">
-        <v>0.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
       <c r="J821" t="n">
         <v>0.98</v>
       </c>
@@ -28895,11 +27711,9 @@
         <v>-116188853.6792601</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
-      </c>
-      <c r="I822" t="n">
-        <v>0.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
       <c r="J822" t="n">
         <v>0.98</v>
       </c>
@@ -28936,11 +27750,9 @@
         <v>-116188853.6792601</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
-      </c>
-      <c r="I823" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
       <c r="J823" t="n">
         <v>0.98</v>
       </c>
@@ -28977,11 +27789,9 @@
         <v>-116188853.6792601</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
-      </c>
-      <c r="I824" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I824" t="inlineStr"/>
       <c r="J824" t="n">
         <v>0.98</v>
       </c>
@@ -29113,6 +27923,6 @@
       <c r="M827" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-05 BackTest TMTG.xlsx
+++ b/BackTest/2019-10-05 BackTest TMTG.xlsx
@@ -517,7 +517,7 @@
         <v>378071.0417025789</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>789475.7849025789</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>2942369.334749131</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1694705.29574913</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>2245645.456749131</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>2256237.281849131</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-2767602.556450869</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1805592.185050869</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-4151048.368250869</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-4025449.784250869</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-4025449.784250869</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-4025449.784250869</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>357755.305387062</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-777905.2441129379</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-777905.2441129379</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-781651.106012938</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1851083.241512938</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>715894.7982870622</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1117352.320287062</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1115352.320287062</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>1115362.320287062</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>1115362.320287062</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>1115362.320287062</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1115233.963987062</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1272363.167487062</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>1073100.921487062</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>1073110.921487062</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>1073110.921487062</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>596178.1715870623</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>596188.1715870623</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1713807.552312938</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1713807.552312938</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1655731.607812938</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1694046.636812938</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1691239.120412938</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1691346.983912938</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1319691.944812938</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1319691.944812938</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-6642270.536312938</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-11087629.24261294</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-11182825.40961294</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-68934976.55455658</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-69163886.37265658</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-69163745.79765658</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-73063350.97535658</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-73063360.97535658</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-77050307.66005658</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -23617,11 +23617,17 @@
         <v>-110965433.5052702</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23654,7 +23660,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23687,7 +23697,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23720,7 +23734,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23753,7 +23771,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23786,7 +23808,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23819,7 +23845,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -23852,7 +23882,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -23885,7 +23919,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -23918,7 +23956,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -23951,7 +23993,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -23984,7 +24030,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24017,7 +24067,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24050,7 +24104,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24083,7 +24141,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24116,7 +24178,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24149,7 +24215,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24182,7 +24252,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24215,7 +24289,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24248,7 +24326,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24281,7 +24363,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24314,7 +24400,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24347,7 +24437,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24380,7 +24474,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24413,7 +24511,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24446,7 +24548,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24479,7 +24585,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24512,7 +24622,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24545,7 +24659,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24578,7 +24696,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24607,11 +24729,17 @@
         <v>-117454108.9214702</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>0.97</v>
+      </c>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24640,11 +24768,17 @@
         <v>-117454108.9214702</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>0.97</v>
+      </c>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24673,11 +24807,17 @@
         <v>-116811487.6564702</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>0.97</v>
+      </c>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24706,11 +24846,17 @@
         <v>-116811487.6564702</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24743,7 +24889,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24772,11 +24922,17 @@
         <v>-116811597.9356702</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24805,11 +24961,17 @@
         <v>-116811493.5362702</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>0.97</v>
+      </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24838,11 +25000,17 @@
         <v>-116811493.5362702</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24871,11 +25039,17 @@
         <v>-116811493.5362702</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -24904,11 +25078,17 @@
         <v>-116811493.5362702</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -24937,11 +25117,17 @@
         <v>-116811493.5362702</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -24970,11 +25156,17 @@
         <v>-116811477.5362702</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25003,11 +25195,17 @@
         <v>-116811617.5139702</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25036,11 +25234,17 @@
         <v>-116811617.5139702</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25069,11 +25273,17 @@
         <v>-116811617.5139702</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25102,11 +25312,17 @@
         <v>-116811617.5139702</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25135,11 +25351,17 @@
         <v>-116811617.5139702</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25168,11 +25390,17 @@
         <v>-116807117.5139702</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25201,11 +25429,17 @@
         <v>-116807117.5139702</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25234,11 +25468,17 @@
         <v>-117042370.5673702</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25267,11 +25507,17 @@
         <v>-116738276.8103702</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>0.97</v>
+      </c>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25300,11 +25546,17 @@
         <v>-116738276.8103702</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25333,11 +25585,17 @@
         <v>-116738276.8103702</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25366,11 +25624,17 @@
         <v>-116738276.8103702</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25399,11 +25663,17 @@
         <v>-117168868.6566702</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25432,11 +25702,17 @@
         <v>-117168868.6566702</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25465,11 +25741,17 @@
         <v>-116612342.6526702</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25498,11 +25780,17 @@
         <v>-116678268.9896702</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25531,11 +25819,17 @@
         <v>-116678268.9896702</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25564,11 +25858,17 @@
         <v>-116678268.9896702</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25597,11 +25897,17 @@
         <v>-116678268.9896702</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25630,11 +25936,17 @@
         <v>-117276033.9183702</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25663,11 +25975,17 @@
         <v>-117175480.8571702</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>0.97</v>
+      </c>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25696,11 +26014,17 @@
         <v>-117175480.8571702</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25729,11 +26053,17 @@
         <v>-117175480.8571702</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25762,11 +26092,17 @@
         <v>-117175480.8571702</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25795,11 +26131,17 @@
         <v>-117175480.8571702</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25828,11 +26170,17 @@
         <v>-117175480.8571702</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -25861,11 +26209,17 @@
         <v>-117175480.8571702</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -25894,11 +26248,17 @@
         <v>-116651323.8317702</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -25927,11 +26287,17 @@
         <v>-116651323.8317702</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -25960,11 +26326,17 @@
         <v>-116651323.8317702</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -25993,11 +26365,17 @@
         <v>-116651323.8317702</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26026,11 +26404,17 @@
         <v>-116090334.1394702</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26059,11 +26443,17 @@
         <v>-116090471.3971702</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>1</v>
+      </c>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26092,11 +26482,17 @@
         <v>-116090345.3755702</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26125,11 +26521,17 @@
         <v>-116090471.2290702</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>1</v>
+      </c>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26158,11 +26560,17 @@
         <v>-116090461.2290702</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26191,11 +26599,17 @@
         <v>-116090584.5925702</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>1</v>
+      </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26224,11 +26638,17 @@
         <v>-116090574.5925702</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26257,11 +26677,17 @@
         <v>-116090574.5925702</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>1</v>
+      </c>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26290,11 +26716,17 @@
         <v>-116090574.5925702</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>1</v>
+      </c>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26323,11 +26755,17 @@
         <v>-116090574.5925702</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>1</v>
+      </c>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26356,11 +26794,17 @@
         <v>-116184000.3708702</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>1</v>
+      </c>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26389,11 +26833,17 @@
         <v>-116184000.3708702</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26422,11 +26872,17 @@
         <v>-116184132.1139702</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26455,11 +26911,17 @@
         <v>-116183122.0129601</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26488,11 +26950,17 @@
         <v>-116183225.7572601</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26521,11 +26989,17 @@
         <v>-116183225.7572601</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26559,10 +27033,12 @@
       <c r="I793" t="n">
         <v>0.98</v>
       </c>
-      <c r="J793" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K793" t="inlineStr"/>
+      <c r="J793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26596,12 +27072,10 @@
       <c r="I794" t="n">
         <v>0.98</v>
       </c>
-      <c r="J794" t="n">
-        <v>0.98</v>
-      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L794" t="n">
@@ -26637,9 +27111,7 @@
       <c r="I795" t="n">
         <v>0.97</v>
       </c>
-      <c r="J795" t="n">
-        <v>0.98</v>
-      </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26678,9 +27150,7 @@
       <c r="I796" t="n">
         <v>0.97</v>
       </c>
-      <c r="J796" t="n">
-        <v>0.98</v>
-      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26719,9 +27189,7 @@
       <c r="I797" t="n">
         <v>0.98</v>
       </c>
-      <c r="J797" t="n">
-        <v>0.98</v>
-      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26760,9 +27228,7 @@
       <c r="I798" t="n">
         <v>0.98</v>
       </c>
-      <c r="J798" t="n">
-        <v>0.98</v>
-      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26801,9 +27267,7 @@
       <c r="I799" t="n">
         <v>0.97</v>
       </c>
-      <c r="J799" t="n">
-        <v>0.98</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26842,9 +27306,7 @@
       <c r="I800" t="n">
         <v>0.97</v>
       </c>
-      <c r="J800" t="n">
-        <v>0.98</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26883,9 +27345,7 @@
       <c r="I801" t="n">
         <v>0.97</v>
       </c>
-      <c r="J801" t="n">
-        <v>0.98</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26924,9 +27384,7 @@
       <c r="I802" t="n">
         <v>0.97</v>
       </c>
-      <c r="J802" t="n">
-        <v>0.98</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26965,9 +27423,7 @@
       <c r="I803" t="n">
         <v>0.96</v>
       </c>
-      <c r="J803" t="n">
-        <v>0.98</v>
-      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27006,9 +27462,7 @@
       <c r="I804" t="n">
         <v>0.98</v>
       </c>
-      <c r="J804" t="n">
-        <v>0.98</v>
-      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27047,9 +27501,7 @@
       <c r="I805" t="n">
         <v>0.98</v>
       </c>
-      <c r="J805" t="n">
-        <v>0.98</v>
-      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27088,9 +27540,7 @@
       <c r="I806" t="n">
         <v>0.98</v>
       </c>
-      <c r="J806" t="n">
-        <v>0.98</v>
-      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27129,9 +27579,7 @@
       <c r="I807" t="n">
         <v>0.99</v>
       </c>
-      <c r="J807" t="n">
-        <v>0.98</v>
-      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27165,12 +27613,12 @@
         <v>-115618177.1676601</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>0.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27204,12 +27652,12 @@
         <v>-115618177.1676601</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>0.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I809" t="n">
+        <v>1</v>
+      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27243,12 +27691,12 @@
         <v>-115618177.1676601</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>0.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>1</v>
+      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27282,12 +27730,12 @@
         <v>-115618177.1676601</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>0.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>1</v>
+      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27321,12 +27769,12 @@
         <v>-115663836.8782601</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>0.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>1</v>
+      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27360,12 +27808,12 @@
         <v>-117050721.7687601</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>0.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27399,12 +27847,12 @@
         <v>-117050832.7695601</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>0.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27438,12 +27886,12 @@
         <v>-117050832.7695601</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>0.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27477,12 +27925,12 @@
         <v>-117050822.7695601</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>0.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27516,12 +27964,12 @@
         <v>-117050926.2356601</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>0.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27555,12 +28003,12 @@
         <v>-116189605.9170601</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>0.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27594,12 +28042,12 @@
         <v>-116189766.5145601</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>0.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27633,12 +28081,12 @@
         <v>-116189004.2697601</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>0.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27672,12 +28120,12 @@
         <v>-116189004.2697601</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>0.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27711,12 +28159,12 @@
         <v>-116188853.6792601</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>0.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27750,12 +28198,12 @@
         <v>-116188853.6792601</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>0.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27789,12 +28237,12 @@
         <v>-116188853.6792601</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>0.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27828,12 +28276,12 @@
         <v>-116188853.6792601</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>0.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27867,12 +28315,12 @@
         <v>-117188853.6792601</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>0.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27906,12 +28354,12 @@
         <v>-117188853.6792601</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>0.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
